--- a/analysis/budget-models/cor_mat_full_budget_model.xlsx
+++ b/analysis/budget-models/cor_mat_full_budget_model.xlsx
@@ -608,5629 +608,5629 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538904603101384</v>
+        <v>0.538948213579278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.528285766266437</v>
+        <v>0.528333123832628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.524722144834416</v>
+        <v>0.524769448498453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.812193957075617</v>
+        <v>0.812169788877639</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.570484579066707</v>
+        <v>-0.570508826527256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.555703396326379</v>
+        <v>0.555744169610928</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00219765923141968</v>
+        <v>-0.00237150886107749</v>
       </c>
       <c r="I2" t="n">
-        <v>0.049220616658083</v>
+        <v>0.0491932287446728</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0479028250607677</v>
+        <v>-0.0479564769529051</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.155445625638165</v>
+        <v>-0.155324679877022</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0875646893109694</v>
+        <v>-0.0872900633450829</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0432912441716927</v>
+        <v>-0.0430159761061917</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0318529565649288</v>
+        <v>-0.0317551493893697</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0242302484348257</v>
+        <v>-0.0241641568499435</v>
       </c>
       <c r="P2" t="n">
-        <v>0.333943383798169</v>
+        <v>0.333992062077498</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.509399023856202</v>
+        <v>-0.509448187674947</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0398093009580157</v>
+        <v>0.0400626044112728</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.118978510171128</v>
+        <v>-0.118782217783634</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0229182716979957</v>
+        <v>-0.0229090431186447</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03809676124489</v>
+        <v>0.0380669857955581</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00322411289620076</v>
+        <v>0.00304827719790412</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0514443841412434</v>
+        <v>0.051351410279086</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00322411289620076</v>
+        <v>0.00304827719790412</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0169477882553246</v>
+        <v>0.0172702217720089</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0366252318714414</v>
+        <v>0.0364286535533467</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.088854799937063</v>
+        <v>-0.0886974436827773</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0569619786341187</v>
+        <v>-0.013781463804146</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.112887684007756</v>
+        <v>-0.119182553438154</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0782828695351317</v>
+        <v>-0.0810052263604592</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0267569453000527</v>
+        <v>0.0266591404874938</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0180275916468121</v>
+        <v>0.0179228002916217</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0197642366187938</v>
+        <v>0.0196784475144871</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0339584458763617</v>
+        <v>-0.0337300654517159</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0686433264067437</v>
+        <v>0.0676969361489494</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.00162705152886166</v>
+        <v>0.00189553863676107</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0471262236595994</v>
+        <v>0.0472772217151166</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0543936038881574</v>
+        <v>0.0543234553809709</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.00592414411233702</v>
+        <v>-0.00597578829702572</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.131422683011093</v>
+        <v>0.131241678357645</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0760460900709054</v>
+        <v>0.0758656909594035</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.190623122036387</v>
+        <v>0.190653293029119</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0418391612840171</v>
+        <v>0.0417701145503143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.538904603101384</v>
+        <v>0.538948213579278</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.406199174991078</v>
+        <v>0.406378004920797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.420476496618348</v>
+        <v>0.420623869968929</v>
       </c>
       <c r="E3" t="n">
-        <v>0.541636252437087</v>
+        <v>0.541803929425234</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.548501229706269</v>
+        <v>-0.548522851142249</v>
       </c>
       <c r="G3" t="n">
-        <v>0.448783819640346</v>
+        <v>0.448965924418959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.010737811438971</v>
+        <v>0.0103502319538145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0237849856340464</v>
+        <v>0.0237249317642262</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0873298652484624</v>
+        <v>-0.0874372041711747</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.195322880587506</v>
+        <v>-0.195047306553823</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0388224018748729</v>
+        <v>-0.0382805365170173</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0577781993397967</v>
+        <v>-0.0571839282785563</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0471308398070384</v>
+        <v>-0.0469117970872719</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0679769369570572</v>
+        <v>-0.0678216167423763</v>
       </c>
       <c r="P3" t="n">
-        <v>0.441431203660268</v>
+        <v>0.441737838778106</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.384331845863788</v>
+        <v>-0.384486496523887</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0554038094015123</v>
+        <v>0.0559720723045719</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.260685701555751</v>
+        <v>-0.260219599265474</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.172828495867607</v>
+        <v>-0.172780827561101</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00789482450993504</v>
+        <v>0.00783138512100193</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.049640034805876</v>
+        <v>-0.0500055251345882</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0130710170095758</v>
+        <v>-0.0132622152809358</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.049640034805876</v>
+        <v>-0.0500055251345882</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0231395866028448</v>
+        <v>0.0238573673063435</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0254458053481281</v>
+        <v>0.0250258731336094</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.0956709208102289</v>
+        <v>-0.0953300203352673</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.130792576002331</v>
+        <v>-0.0634418386039441</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.178851606049107</v>
+        <v>-0.176294009608871</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.142342974529512</v>
+        <v>-0.134818510882832</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.012158949252726</v>
+        <v>0.0119469645801309</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.00404126309295361</v>
+        <v>-0.00426626914512229</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.0403253563999472</v>
+        <v>-0.0405014097916851</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.00474728516295019</v>
+        <v>-0.00427039703503852</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0411561358586096</v>
+        <v>0.0394621773428164</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0318996393261057</v>
+        <v>-0.0312853901370834</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0241942024509358</v>
+        <v>0.0245405779388053</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0254537596247279</v>
+        <v>0.0253024131790243</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0270035389849952</v>
+        <v>0.026884229060976</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.125187361525176</v>
+        <v>0.124806339159202</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0461356499259669</v>
+        <v>0.0457602708475514</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.121169092922678</v>
+        <v>0.121232859673003</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0185468017431411</v>
+        <v>0.0183974029386152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.528285766266437</v>
+        <v>0.528333123832628</v>
       </c>
       <c r="B4" t="n">
-        <v>0.406199174991078</v>
+        <v>0.406378004920797</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.969047731569109</v>
+        <v>0.969052458091767</v>
       </c>
       <c r="E4" t="n">
-        <v>0.880520540032482</v>
+        <v>0.880554445146117</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.560371545327666</v>
+        <v>-0.560396142250923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.583123416973888</v>
+        <v>0.583246535678192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.108078430055483</v>
+        <v>0.107695502058801</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0271522253993604</v>
+        <v>-0.02719869084726</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.139840711267064</v>
+        <v>-0.139929986172831</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.159894994276557</v>
+        <v>-0.159656316725395</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0819231577920982</v>
+        <v>-0.0814119801617288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0480255735397656</v>
+        <v>0.048498208264074</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0600930165918686</v>
+        <v>0.0602680086265979</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00451783382360382</v>
+        <v>0.00464458280443965</v>
       </c>
       <c r="P4" t="n">
-        <v>0.35695491999978</v>
+        <v>0.357282501644267</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.574882655584445</v>
+        <v>-0.574979113339316</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0841572927178744</v>
+        <v>0.0846461036805466</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.164936366607807</v>
+        <v>-0.164548499419867</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.15990882363474</v>
+        <v>-0.159870377045174</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.0308538674636353</v>
+        <v>-0.0309052836081712</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0664316782967688</v>
+        <v>-0.0667538589041955</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0362473277122571</v>
+        <v>-0.0364148556016854</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.0664316782967688</v>
+        <v>-0.0667538589041955</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.0714002043336292</v>
+        <v>-0.0706666868613741</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0125483400055481</v>
+        <v>0.0121756164734405</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.113447159297723</v>
+        <v>-0.113135856839973</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.173803322930077</v>
+        <v>-0.155043781773527</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.00916121058878672</v>
+        <v>-0.00980403724012686</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0514008048237982</v>
+        <v>-0.0409904585885751</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.0370791011116342</v>
+        <v>-0.0372596356034682</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.0788004727272356</v>
+        <v>-0.0789869062035947</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.0403130220244184</v>
+        <v>-0.0404716710852895</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.0490344415616594</v>
+        <v>-0.0485848858102498</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0426252315485527</v>
+        <v>0.0410831937968362</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.0219107833335299</v>
+        <v>-0.0213640652933875</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.00426949109379505</v>
+        <v>-0.00394905799653414</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0176558449486552</v>
+        <v>0.0175214295661164</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.00396245257795574</v>
+        <v>-0.00406452000807884</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.179959433549902</v>
+        <v>0.179599947995076</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.016103297035414</v>
+        <v>-0.0164205101672469</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.151813696276776</v>
+        <v>0.151868234202337</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.0205014128643539</v>
+        <v>-0.0206289304008776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.524722144834416</v>
+        <v>0.524769448498453</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420476496618348</v>
+        <v>0.420623869968929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.969047731569109</v>
+        <v>0.969052458091767</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.852005421791105</v>
+        <v>0.852033038741935</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.549680338051952</v>
+        <v>-0.549710085064287</v>
       </c>
       <c r="G5" t="n">
-        <v>0.562970998216156</v>
+        <v>0.563078738745062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.104262932282632</v>
+        <v>0.103932684561873</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0192046556495971</v>
+        <v>-0.0192459536165859</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.144462967348279</v>
+        <v>-0.144541141927502</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.142926177382699</v>
+        <v>-0.142724426252025</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.062327870959308</v>
+        <v>-0.061894036372409</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0506354887043175</v>
+        <v>0.0510389663906711</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0577810327488932</v>
+        <v>0.0579326346013386</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00674704336617746</v>
+        <v>0.00685601925709043</v>
       </c>
       <c r="P5" t="n">
-        <v>0.352998337868294</v>
+        <v>0.353248244299638</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.553743999375876</v>
+        <v>-0.553832821521786</v>
       </c>
       <c r="R5" t="n">
-        <v>0.099289247457512</v>
+        <v>0.0996955493381032</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.182988335225868</v>
+        <v>-0.182646690985484</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.174479433195719</v>
+        <v>-0.174447407763973</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0233105814435104</v>
+        <v>-0.0233561636023417</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0711798488718817</v>
+        <v>-0.0714549844279882</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.036224981618907</v>
+        <v>-0.0363696413848177</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.0711798488718817</v>
+        <v>-0.0714549844279882</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0735628292793423</v>
+        <v>-0.0729219143139115</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0142454428321343</v>
+        <v>0.0139234634895249</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.113408956266576</v>
+        <v>-0.113140312795701</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.190175007414711</v>
+        <v>-0.17927616617941</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0147303797508012</v>
+        <v>-0.0124016603164683</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0592079866501875</v>
+        <v>-0.0489497055997965</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0330199952012116</v>
+        <v>-0.0331764927951549</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.0643981345522015</v>
+        <v>-0.0645617695391158</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.0356632942630943</v>
+        <v>-0.0358010688056128</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.0582999574864354</v>
+        <v>-0.0579070864125502</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0416639252080946</v>
+        <v>0.0403185529915813</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.0253869673634875</v>
+        <v>-0.0249124995863036</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.00847507632366158</v>
+        <v>-0.00819772245973835</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0178242439144014</v>
+        <v>0.0177086112334393</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.0140934913401654</v>
+        <v>-0.014180272493025</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.170166133117441</v>
+        <v>0.169857711219235</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.0223022595595549</v>
+        <v>-0.0225736084608722</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.158338728594465</v>
+        <v>0.158387223346393</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.0167767890968475</v>
+        <v>-0.0168874001516423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.812193957075617</v>
+        <v>0.812169788877639</v>
       </c>
       <c r="B6" t="n">
-        <v>0.541636252437087</v>
+        <v>0.541803929425234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.880520540032482</v>
+        <v>0.880554445146117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.852005421791105</v>
+        <v>0.852033038741935</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.66444484319125</v>
+        <v>-0.664434290198583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.659396507698065</v>
+        <v>0.659518114916957</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0611551890656096</v>
+        <v>0.0607106260145923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0129395938460491</v>
+        <v>0.0128758144131271</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.104037650034272</v>
+        <v>-0.104149887545732</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.190509597126253</v>
+        <v>-0.19020792034765</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.116272696137973</v>
+        <v>-0.115634803104063</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00983313038286914</v>
+        <v>0.0104360726796792</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0155602433153072</v>
+        <v>0.0157834620967209</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0124931002298694</v>
+        <v>-0.0123352334681069</v>
       </c>
       <c r="P6" t="n">
-        <v>0.413079299874213</v>
+        <v>0.413471207729657</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.656378127519877</v>
+        <v>-0.65646271327681</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0609916840474264</v>
+        <v>0.0616102351540538</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.173670390885979</v>
+        <v>-0.173196719577397</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.116660367800139</v>
+        <v>-0.116616660886323</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00458074939904958</v>
+        <v>0.00451199167958372</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0461986345513275</v>
+        <v>-0.0465995734073191</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00281600633247864</v>
+        <v>0.00260318367287807</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0461986345513275</v>
+        <v>-0.0465995734073191</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0281490845596008</v>
+        <v>-0.0273113908088706</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0248443057469078</v>
+        <v>0.0243859247278523</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.111954541964382</v>
+        <v>-0.111576119285015</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.147130101597272</v>
+        <v>-0.11197600008172</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0756578483803954</v>
+        <v>-0.0822105536637699</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0705233617041093</v>
+        <v>-0.0686822368927982</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.0144188591939228</v>
+        <v>-0.0146435366081026</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.0451987859918176</v>
+        <v>-0.045433192507775</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.00816216308055647</v>
+        <v>-0.00836210928042816</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.0408813899162231</v>
+        <v>-0.0403410746799512</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0734243882684305</v>
+        <v>0.0714657782754579</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.0209716378254292</v>
+        <v>-0.0203094171661003</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0176864515589487</v>
+        <v>0.0180674244596834</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0322389412381446</v>
+        <v>0.0320716483620808</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.00114844888304493</v>
+        <v>-0.00127301559924057</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.182526871176367</v>
+        <v>0.182089137757333</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0351842498964919</v>
+        <v>0.0347784485941486</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.171457567572187</v>
+        <v>0.171514653947675</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0130954288540342</v>
+        <v>0.0129332053398795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.570484579066707</v>
+        <v>-0.570508826527256</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.548501229706269</v>
+        <v>-0.548522851142249</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.560371545327666</v>
+        <v>-0.560396142250923</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.549680338051952</v>
+        <v>-0.549710085064287</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.66444484319125</v>
+        <v>-0.664434290198583</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.627387004285038</v>
+        <v>-0.627394922644098</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0818150785159397</v>
+        <v>-0.0816504307200222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0981677918921771</v>
+        <v>0.0981861075408668</v>
       </c>
       <c r="J7" t="n">
-        <v>0.254811717765684</v>
+        <v>0.254846618272293</v>
       </c>
       <c r="K7" t="n">
-        <v>0.185295746251964</v>
+        <v>0.185191041682359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.058703872543087</v>
+        <v>0.0584826014328611</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0606237618882157</v>
+        <v>-0.0608049303387004</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0619396560014727</v>
+        <v>-0.0620127679998645</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0323201971978366</v>
+        <v>0.0322648829269133</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.366216836933814</v>
+        <v>-0.366182671495625</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.493001852934848</v>
+        <v>0.493038682917207</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.00273621793345741</v>
+        <v>-0.0029642771604167</v>
       </c>
       <c r="S7" t="n">
-        <v>0.233098105090266</v>
+        <v>0.232905731639768</v>
       </c>
       <c r="T7" t="n">
-        <v>0.155607677543971</v>
+        <v>0.155596875087121</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0820259427864836</v>
+        <v>0.082046945330264</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0664377118364358</v>
+        <v>0.0665668064601125</v>
       </c>
       <c r="W7" t="n">
-        <v>0.086590755049499</v>
+        <v>0.0866571419556403</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0664377118364358</v>
+        <v>0.0665668064601125</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.108433009989039</v>
+        <v>0.10806231442252</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.054847277829885</v>
+        <v>0.0549868839903359</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0959388629420048</v>
+        <v>0.0958052922043515</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.175742469150173</v>
+        <v>0.0986734889561434</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0379061197112396</v>
+        <v>0.036185368570733</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0524785147679764</v>
+        <v>0.0338258406184476</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0294246665099605</v>
+        <v>0.0295010345631734</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.100099177537357</v>
+        <v>0.100174525432035</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.11286774245776</v>
+        <v>0.112929123753368</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0374567766673806</v>
+        <v>0.037264140985511</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.0271524497150819</v>
+        <v>-0.0264735912425332</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0310878258333116</v>
+        <v>0.0308471988242295</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.00311658459445343</v>
+        <v>-0.00324998627076893</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.00372059334152677</v>
+        <v>-0.00366515087697646</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0122333081658071</v>
+        <v>0.0122759227290421</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.249658015277567</v>
+        <v>-0.24948158380555</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0653567243507668</v>
+        <v>0.0654781508675843</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.13403042828088</v>
+        <v>-0.134058033976122</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0893372336262562</v>
+        <v>0.0893872945835866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.555703396326379</v>
+        <v>0.555744169610928</v>
       </c>
       <c r="B8" t="n">
-        <v>0.448783819640346</v>
+        <v>0.448965924418959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583123416973888</v>
+        <v>0.583246535678192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.562970998216156</v>
+        <v>0.563078738745062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.659396507698065</v>
+        <v>0.659518114916957</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.627387004285038</v>
+        <v>-0.627394922644098</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.099728084305719</v>
+        <v>0.0993134845668281</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.132338599039756</v>
+        <v>-0.1323714563946</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.299353171647653</v>
+        <v>-0.29941957071706</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.200695437597709</v>
+        <v>-0.200423773487099</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0332656851575627</v>
+        <v>-0.0327364054127276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0600070572378507</v>
+        <v>0.060517490220457</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0757126887486504</v>
+        <v>0.0758999191551954</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.09470241357707</v>
+        <v>-0.0945448763102682</v>
       </c>
       <c r="P8" t="n">
-        <v>0.336706414920719</v>
+        <v>0.337108060938717</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.327671223035103</v>
+        <v>-0.327838345420843</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.00157948491580675</v>
+        <v>-0.000981118753012909</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.269909030635315</v>
+        <v>-0.269447657962656</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.116634586856946</v>
+        <v>-0.116597417843202</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.112976879455043</v>
+        <v>-0.113018862775961</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00781952540496984</v>
+        <v>0.00743860066483312</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.127302886592316</v>
+        <v>-0.127465780899053</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00781952540496984</v>
+        <v>0.00743860066483312</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.0790047778483647</v>
+        <v>-0.0782001415908464</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.112853859695836</v>
+        <v>-0.113209494028337</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.101491037268477</v>
+        <v>-0.101154440940773</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.104071528820498</v>
+        <v>-0.0553892695249594</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0334773978165893</v>
+        <v>0.0403509378523225</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0351454494742489</v>
+        <v>0.0504260275510788</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.0916852691365288</v>
+        <v>-0.0918698667566053</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.114483679698114</v>
+        <v>-0.114678392800827</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.176542864471071</v>
+        <v>-0.176686849113204</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.0239140925959043</v>
+        <v>-0.0234361275237627</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0763135722748221</v>
+        <v>0.0745171350533501</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0391586081378222</v>
+        <v>-0.0385500940570286</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.00682327998501128</v>
+        <v>-0.00647221750987177</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0182986679715029</v>
+        <v>0.0181514560964113</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0262097563980127</v>
+        <v>-0.0263172112281274</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.289060862093633</v>
+        <v>0.288632065226228</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.107670599675541</v>
+        <v>-0.107984949724933</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.212767500142159</v>
+        <v>0.212814607716049</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.124351822516333</v>
+        <v>-0.124470827524892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.00219765923141968</v>
+        <v>-0.00237150886107749</v>
       </c>
       <c r="B9" t="n">
-        <v>0.010737811438971</v>
+        <v>0.0103502319538145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108078430055483</v>
+        <v>0.107695502058801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104262932282632</v>
+        <v>0.103932684561873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0611551890656096</v>
+        <v>0.0607106260145923</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0818150785159397</v>
+        <v>-0.0816504307200222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.099728084305719</v>
+        <v>0.0993134845668281</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.134798856139398</v>
+        <v>-0.134705002404951</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.20910512378119</v>
+        <v>-0.208913273342636</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0750757865306853</v>
+        <v>-0.0753131097741349</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0554764372460183</v>
+        <v>-0.0560344746968442</v>
       </c>
       <c r="M9" t="n">
-        <v>0.497568486748032</v>
+        <v>0.496593757909559</v>
       </c>
       <c r="N9" t="n">
-        <v>0.788597958457911</v>
+        <v>0.788137682329445</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.00895729318727714</v>
+        <v>-0.0091167603407591</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0185674360613209</v>
+        <v>0.0176867914490051</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0821573337291504</v>
+        <v>-0.0818383281246165</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0256847759030891</v>
+        <v>0.0249719777434637</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.0456890486915831</v>
+        <v>-0.0460908460171815</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0332444347336938</v>
+        <v>-0.0332582506949814</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.107824079409192</v>
+        <v>-0.10772915046934</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0228414599016165</v>
+        <v>0.0232700171113584</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.121885059873709</v>
+        <v>-0.121630316067206</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0228414599016165</v>
+        <v>0.0232700171113584</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.00357066216148309</v>
+        <v>0.00272286060592285</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0641160781079044</v>
+        <v>-0.063619538395445</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.093882120903321</v>
+        <v>-0.0942026570751186</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.00795824171804369</v>
+        <v>-0.0351268524051106</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.134670205935996</v>
+        <v>0.149653314320494</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0958577941762569</v>
+        <v>0.127057203300022</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.0148084095895173</v>
+        <v>-0.0145658103351686</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.11589790629324</v>
+        <v>-0.1156061805479</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.134754172153167</v>
+        <v>-0.134507133632276</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.129879660283364</v>
+        <v>0.129266947254978</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.002627744982685</v>
+        <v>0.00437490731902587</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0911782805900377</v>
+        <v>0.0904357322271478</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0708881706302669</v>
+        <v>0.0704547797136359</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.0474103335600048</v>
+        <v>-0.0472317540194407</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.00242571596520586</v>
+        <v>0.00255536074417113</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.127622744627324</v>
+        <v>0.127959092153283</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.129249174279428</v>
+        <v>-0.128787226932543</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0102538228968839</v>
+        <v>0.010154054636589</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.122772787595046</v>
+        <v>-0.122576012142009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.049220616658083</v>
+        <v>0.0491932287446728</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0237849856340464</v>
+        <v>0.0237249317642262</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0271522253993604</v>
+        <v>-0.02719869084726</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0192046556495971</v>
+        <v>-0.0192459536165859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0129395938460491</v>
+        <v>0.0128758144131271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0981677918921771</v>
+        <v>0.0981861075408668</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.132338599039756</v>
+        <v>-0.1323714563946</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.134798856139398</v>
+        <v>-0.134705002404951</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.390035048893378</v>
+        <v>0.39004494280016</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0138392325705377</v>
+        <v>-0.0138759653706597</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.150002776166062</v>
+        <v>-0.150028272879766</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.159438120124151</v>
+        <v>-0.159456387707024</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.184876669985577</v>
+        <v>-0.184898516686765</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0500997351537924</v>
+        <v>-0.0501215947638945</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0101181120988064</v>
+        <v>-0.0102350815071383</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0321427283783124</v>
+        <v>-0.03209667555542</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0596137009101292</v>
+        <v>0.0594795355957319</v>
       </c>
       <c r="S10" t="n">
-        <v>0.236473956877638</v>
+        <v>0.236363460320684</v>
       </c>
       <c r="T10" t="n">
-        <v>0.141570321560437</v>
+        <v>0.141566512612324</v>
       </c>
       <c r="U10" t="n">
-        <v>0.977944544193674</v>
+        <v>0.977944717339019</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.0219285955444121</v>
+        <v>-0.021859678950219</v>
       </c>
       <c r="W10" t="n">
-        <v>0.680496511713778</v>
+        <v>0.680487510956109</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.0219285955444121</v>
+        <v>-0.021859678950219</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.189174689882034</v>
+        <v>0.188896386217349</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.219623474858975</v>
+        <v>0.219635825399134</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.111965387989374</v>
+        <v>0.11189703405341</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.220839005180739</v>
+        <v>0.183817809824719</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.292976137032416</v>
+        <v>-0.316661654413326</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.141103890824654</v>
+        <v>-0.176188574051422</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.314251681676851</v>
+        <v>0.314264569390204</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.671913849236062</v>
+        <v>0.671897297808361</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7222312100956</v>
+        <v>0.722221901378617</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.0240630905957244</v>
+        <v>-0.0241338369558375</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0827975737917302</v>
+        <v>0.0827606007795042</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.076203601381519</v>
+        <v>0.0760650109341041</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0396292860890663</v>
+        <v>0.0395626435604598</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.0216644466013163</v>
+        <v>-0.0216393336492397</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.00859800375425578</v>
+        <v>0.00861679650958214</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.228661179928122</v>
+        <v>-0.228564822317293</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.270312753172177</v>
+        <v>0.270319436847585</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.0418244169118112</v>
+        <v>-0.041837981397224</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.928138172194397</v>
+        <v>0.928128799976321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0479028250607677</v>
+        <v>-0.0479564769529051</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0873298652484624</v>
+        <v>-0.0874372041711747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.139840711267064</v>
+        <v>-0.139929986172831</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.144462967348279</v>
+        <v>-0.144541141927502</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.104037650034272</v>
+        <v>-0.104149887545732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.254811717765684</v>
+        <v>0.254846618272293</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.299353171647653</v>
+        <v>-0.29941957071706</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.20910512378119</v>
+        <v>-0.208913273342636</v>
       </c>
       <c r="I11" t="n">
-        <v>0.390035048893378</v>
+        <v>0.39004494280016</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0302546603549337</v>
+        <v>0.0301676940675412</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0426382518936933</v>
+        <v>0.0424285215432325</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.228588638094618</v>
+        <v>-0.22868333328591</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.271971168713108</v>
+        <v>-0.272024166794784</v>
       </c>
       <c r="O11" t="n">
-        <v>0.018285579257144</v>
+        <v>0.0182323125883125</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.202458165499757</v>
+        <v>-0.202560278386849</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.13374535704886</v>
+        <v>0.133823934013923</v>
       </c>
       <c r="R11" t="n">
-        <v>0.18007743990945</v>
+        <v>0.179750157307929</v>
       </c>
       <c r="S11" t="n">
-        <v>0.340714039300883</v>
+        <v>0.340500948141564</v>
       </c>
       <c r="T11" t="n">
-        <v>0.105315137603998</v>
+        <v>0.105305851427662</v>
       </c>
       <c r="U11" t="n">
-        <v>0.334260975391068</v>
+        <v>0.334274302778251</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0885783651139428</v>
+        <v>0.0886987093215895</v>
       </c>
       <c r="W11" t="n">
-        <v>0.378140338645173</v>
+        <v>0.378182086200191</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0885783651139428</v>
+        <v>0.0886987093215895</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.225344162272034</v>
+        <v>0.224882212347288</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.385620751021549</v>
+        <v>0.385666808161022</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.204214540267781</v>
+        <v>0.204065815555564</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.128185984115467</v>
+        <v>0.0797689435727715</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.305105828409908</v>
+        <v>-0.347610305794523</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.190246826691946</v>
+        <v>-0.240666698017937</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.205403454238699</v>
+        <v>0.205462516036558</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.350730374792776</v>
+        <v>0.350779053565157</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.370496545042821</v>
+        <v>0.370537416781815</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.00600396234886912</v>
+        <v>-0.00617676511353923</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.10659957294159</v>
+        <v>0.106788324616449</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.00440121849977923</v>
+        <v>0.00418045845229796</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.0117503384314673</v>
+        <v>-0.0118787494289793</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.0233540320402461</v>
+        <v>-0.0232988306346174</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0539294210690236</v>
+        <v>0.0539692638355594</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.476471605330119</v>
+        <v>-0.476254639806636</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.465459787870499</v>
+        <v>0.465492361769951</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.136291773470927</v>
+        <v>-0.136318688112673</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.386028111478488</v>
+        <v>0.386060823226269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.155445625638165</v>
+        <v>-0.155324679877022</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.195322880587506</v>
+        <v>-0.195047306553823</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.159894994276557</v>
+        <v>-0.159656316725395</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.142926177382699</v>
+        <v>-0.142724426252025</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.190509597126253</v>
+        <v>-0.19020792034765</v>
       </c>
       <c r="F12" t="n">
-        <v>0.185295746251964</v>
+        <v>0.185191041682359</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.200695437597709</v>
+        <v>-0.200423773487099</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0750757865306853</v>
+        <v>-0.0753131097741349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0138392325705377</v>
+        <v>-0.0138759653706597</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0302546603549337</v>
+        <v>0.0301676940675412</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.332745397327097</v>
+        <v>0.332937913645844</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0422154666822049</v>
+        <v>-0.041815131866187</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.047201007390091</v>
+        <v>-0.0470534968147159</v>
       </c>
       <c r="O12" t="n">
-        <v>0.790407437410194</v>
+        <v>0.790418906752253</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.349117868677267</v>
+        <v>-0.348283736751229</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.170119900965611</v>
+        <v>0.169916118695996</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.073455901307138</v>
+        <v>-0.0729983342899264</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0998850698911349</v>
+        <v>0.100107126316559</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00288609304404256</v>
+        <v>0.00289839711450767</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0329661041131135</v>
+        <v>-0.0330053835278499</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0897394682142441</v>
+        <v>-0.0899732243017801</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0281341242668672</v>
+        <v>-0.0282617726933309</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0897394682142441</v>
+        <v>-0.0899732243017801</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0239825354460857</v>
+        <v>0.024462350377034</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0969933317152142</v>
+        <v>0.0966846661700847</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.119697791327367</v>
+        <v>0.119881882511097</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.0916351172066284</v>
+        <v>-0.144877362684189</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.14660111908534</v>
+        <v>-0.122886120383167</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.187889550340058</v>
+        <v>-0.182847450584563</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.00389509664877626</v>
+        <v>-0.0040361013578481</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.0533330498514939</v>
+        <v>-0.0534778501796331</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.0191416621010477</v>
+        <v>-0.0192643501428871</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0429970582094855</v>
+        <v>0.0433005101481742</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.0421322239204092</v>
+        <v>-0.0430232191478806</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0109774690712685</v>
+        <v>0.0113717509572003</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.00300661060207055</v>
+        <v>-0.00276555760180021</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.120114538294139</v>
+        <v>0.12000247438315</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.0115067216569081</v>
+        <v>-0.0115829354794559</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.0730576259247591</v>
+        <v>-0.0732687383773847</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.0101743380146759</v>
+        <v>-0.0104144476692012</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.0906451116702702</v>
+        <v>-0.0905792993774711</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.0772984614066026</v>
+        <v>-0.0773886767019283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0875646893109694</v>
+        <v>-0.0872900633450829</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0388224018748729</v>
+        <v>-0.0382805365170173</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0819231577920982</v>
+        <v>-0.0814119801617288</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.062327870959308</v>
+        <v>-0.061894036372409</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.116272696137973</v>
+        <v>-0.115634803104063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.058703872543087</v>
+        <v>0.0584826014328611</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0332656851575627</v>
+        <v>-0.0327364054127276</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0554764372460183</v>
+        <v>-0.0560344746968442</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.150002776166062</v>
+        <v>-0.150028272879766</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0426382518936933</v>
+        <v>0.0424285215432325</v>
       </c>
       <c r="K13" t="n">
-        <v>0.332745397327097</v>
+        <v>0.332937913645844</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.126326413634412</v>
+        <v>-0.125355355772382</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0989696446611273</v>
+        <v>-0.0986020199079244</v>
       </c>
       <c r="O13" t="n">
-        <v>0.136756955278765</v>
+        <v>0.136917122033786</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0613649670356304</v>
+        <v>-0.0601214003248578</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.119987242067949</v>
+        <v>0.119530127257563</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.013667643667181</v>
+        <v>-0.0127151692364252</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.128792628413221</v>
+        <v>-0.128144047712038</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.129435901515991</v>
+        <v>-0.129355252870831</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.157561854832819</v>
+        <v>-0.157593573256455</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0455762102302963</v>
+        <v>-0.0461423809760345</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.155418233771834</v>
+        <v>-0.155647063653143</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.0455762102302963</v>
+        <v>-0.0461423809760345</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0565552155314532</v>
+        <v>-0.0553421858774509</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0390601735954202</v>
+        <v>0.0384023242070169</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00363193705673209</v>
+        <v>0.00411056395658266</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.140093575088851</v>
+        <v>-0.187230791538711</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.110680137013628</v>
+        <v>-0.0790856386123505</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.133959996868065</v>
+        <v>-0.114124910289788</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.0924932306077075</v>
+        <v>-0.092773230681554</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.128493112444424</v>
+        <v>-0.128780940389327</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.15853645500765</v>
+        <v>-0.158750400205217</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0310535669544755</v>
+        <v>0.0317638615150917</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.0327164664988313</v>
+        <v>-0.0349693278252187</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.0671482809641077</v>
+        <v>-0.0661712167041242</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.00207641620597716</v>
+        <v>-0.0015267159076811</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.070086937286126</v>
+        <v>0.0698305804676433</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.0248270807983442</v>
+        <v>-0.0249931480660364</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.0137968603888293</v>
+        <v>-0.0143121882062267</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.106731427072486</v>
+        <v>-0.107222518345491</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.0252950232042441</v>
+        <v>-0.0251525397075608</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.170941696584544</v>
+        <v>-0.171092766112276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0432912441716927</v>
+        <v>-0.0430159761061917</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0577781993397967</v>
+        <v>-0.0571839282785563</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0480255735397656</v>
+        <v>0.048498208264074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0506354887043175</v>
+        <v>0.0510389663906711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00983313038286914</v>
+        <v>0.0104360726796792</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0606237618882157</v>
+        <v>-0.0608049303387004</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0600070572378507</v>
+        <v>0.060517490220457</v>
       </c>
       <c r="H14" t="n">
-        <v>0.497568486748032</v>
+        <v>0.496593757909559</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.159438120124151</v>
+        <v>-0.159456387707024</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.228588638094618</v>
+        <v>-0.22868333328591</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0422154666822049</v>
+        <v>-0.041815131866187</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.126326413634412</v>
+        <v>-0.125355355772382</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.860986068424487</v>
+        <v>0.860877425179616</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0302096337675575</v>
+        <v>-0.0299595168831898</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0489367068435345</v>
+        <v>-0.0476201888499929</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0482785322957056</v>
+        <v>-0.0486777033760321</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.00913309834160083</v>
+        <v>-0.00811554647045641</v>
       </c>
       <c r="S14" t="n">
-        <v>0.019564191061692</v>
+        <v>0.0201637331223726</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0119883016969693</v>
+        <v>0.0120134443915073</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.123665786880308</v>
+        <v>-0.123710792623828</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0314026613806401</v>
+        <v>0.0307431670773491</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.101305571763378</v>
+        <v>-0.101574959397804</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0314026613806401</v>
+        <v>0.0307431670773491</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.0363236668201167</v>
+        <v>-0.0350492055656872</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.0810021410903365</v>
+        <v>-0.0816232764468196</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.027858723578509</v>
+        <v>-0.0273260096288288</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0572888545799218</v>
+        <v>0.0493027614607089</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.157328005550301</v>
+        <v>0.160255554825464</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.13511372752772</v>
+        <v>0.149265963438841</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0639607458550847</v>
+        <v>0.0635801631274713</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.135051118362304</v>
+        <v>-0.135353158426804</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.0849555981044329</v>
+        <v>-0.0852185779321766</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0136531823180894</v>
+        <v>0.0144291708201861</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0214899031854325</v>
+        <v>-0.0239601727725268</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.18560636674735</v>
+        <v>0.186405887121194</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0103145961108858</v>
+        <v>0.0108965562501296</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.103322922476778</v>
+        <v>-0.103514376565395</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0101186525921471</v>
+        <v>0.00992432236220974</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.161129220174785</v>
+        <v>0.160465668093654</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.0990777998861691</v>
+        <v>-0.0996080019378948</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.00595061014261296</v>
+        <v>-0.00580606744874943</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.144822730129047</v>
+        <v>-0.144992769798813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0318529565649288</v>
+        <v>-0.0317551493893697</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0471308398070384</v>
+        <v>-0.0469117970872719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0600930165918686</v>
+        <v>0.0602680086265979</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0577810327488932</v>
+        <v>0.0579326346013386</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0155602433153072</v>
+        <v>0.0157834620967209</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0619396560014727</v>
+        <v>-0.0620127679998645</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0757126887486504</v>
+        <v>0.0758999191551954</v>
       </c>
       <c r="H15" t="n">
-        <v>0.788597958457911</v>
+        <v>0.788137682329445</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.184876669985577</v>
+        <v>-0.184898516686765</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.271971168713108</v>
+        <v>-0.272024166794784</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.047201007390091</v>
+        <v>-0.0470534968147159</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0989696446611273</v>
+        <v>-0.0986020199079244</v>
       </c>
       <c r="M15" t="n">
-        <v>0.860986068424487</v>
+        <v>0.860877425179616</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0143999826436148</v>
+        <v>-0.0143108760968141</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.027565603082974</v>
+        <v>-0.0270732798902266</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0735369143379097</v>
+        <v>-0.073683959383962</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.00374337977125365</v>
+        <v>-0.00336495905124726</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.00798410624380942</v>
+        <v>-0.00775347423528055</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.00484484122393947</v>
+        <v>-0.00483307700216504</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.145163699964771</v>
+        <v>-0.145191919524458</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0369838811413313</v>
+        <v>0.036735351592591</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.139807603570996</v>
+        <v>-0.139910860430611</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0369838811413313</v>
+        <v>0.036735351592591</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.0312561035289645</v>
+        <v>-0.0307705142920605</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.0905700318132017</v>
+        <v>-0.0907948451218083</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.0830898190586933</v>
+        <v>-0.0828801088270011</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0581824262178062</v>
+        <v>0.0247441097073642</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.172147397968844</v>
+        <v>0.182459019761245</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.133372924243057</v>
+        <v>0.158122013112341</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0325651741816927</v>
+        <v>0.0324315833758463</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.166130393227179</v>
+        <v>-0.166246886314052</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.143755512570412</v>
+        <v>-0.143853324554649</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.10326894673758</v>
+        <v>0.103521257676549</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.0166515100988836</v>
+        <v>-0.0175450527881277</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.161617737212342</v>
+        <v>0.161889415949066</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.042385332723902</v>
+        <v>0.0425942506736071</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.0764576503660681</v>
+        <v>-0.0765407710267849</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.0009580655887103</v>
+        <v>-0.00102865557831948</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.186135586148824</v>
+        <v>0.185882406723275</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.146223663685537</v>
+        <v>-0.146408217178759</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.00123301498961579</v>
+        <v>0.00128578898599559</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.168796641431898</v>
+        <v>-0.168870576907123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0242302484348257</v>
+        <v>-0.0241641568499435</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0679769369570572</v>
+        <v>-0.0678216167423763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00451783382360382</v>
+        <v>0.00464458280443965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00674704336617746</v>
+        <v>0.00685601925709043</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0124931002298694</v>
+        <v>-0.0123352334681069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0323201971978366</v>
+        <v>0.0322648829269133</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09470241357707</v>
+        <v>-0.0945448763102682</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.00895729318727714</v>
+        <v>-0.0091167603407591</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0500997351537924</v>
+        <v>-0.0501215947638945</v>
       </c>
       <c r="J16" t="n">
-        <v>0.018285579257144</v>
+        <v>0.0182323125883125</v>
       </c>
       <c r="K16" t="n">
-        <v>0.790407437410194</v>
+        <v>0.790418906752253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.136756955278765</v>
+        <v>0.136917122033786</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0302096337675575</v>
+        <v>-0.0299595168831898</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0143999826436148</v>
+        <v>-0.0143108760968141</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.279901730905413</v>
+        <v>-0.279337491254563</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.032474915299532</v>
+        <v>0.0323623621419053</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.0321393122491289</v>
+        <v>-0.0318642760282971</v>
       </c>
       <c r="S16" t="n">
-        <v>0.120998112520203</v>
+        <v>0.121125723062888</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0184227146733455</v>
+        <v>-0.0184143486373816</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.0729956608175825</v>
+        <v>-0.073019233095445</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.107344854308926</v>
+        <v>-0.107480276218002</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.0716542185194713</v>
+        <v>-0.0717299264028562</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.107344854308926</v>
+        <v>-0.107480276218002</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.00932371989917566</v>
+        <v>-0.00900354961091192</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.103723212655656</v>
+        <v>0.103521667480365</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.137900847542243</v>
+        <v>0.138008061257664</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.110853688108189</v>
+        <v>-0.146635738762319</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.115718311257971</v>
+        <v>-0.103624689394531</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.203540543764737</v>
+        <v>-0.200175425055695</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00819664953731961</v>
+        <v>0.00810767248173308</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.062971489853271</v>
+        <v>-0.0630601277705817</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.0516957438239648</v>
+        <v>-0.0517695376558722</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0319139923629684</v>
+        <v>0.0321024546221977</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.0172413312277994</v>
+        <v>-0.0178298509539794</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.00370063719141751</v>
+        <v>0.0039483508930166</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0252398594869155</v>
+        <v>0.0253840716998854</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0908941540707351</v>
+        <v>0.0908268687688723</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.0104420312463511</v>
+        <v>-0.010489693484696</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0567204568894189</v>
+        <v>0.0565662907512296</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.00270989501339882</v>
+        <v>0.00255799162197299</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.066414269552811</v>
+        <v>-0.0663755218672208</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.091163529889349</v>
+        <v>-0.0912193665672362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.333943383798169</v>
+        <v>0.333992062077498</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441431203660268</v>
+        <v>0.441737838778106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35695491999978</v>
+        <v>0.357282501644267</v>
       </c>
       <c r="D17" t="n">
-        <v>0.352998337868294</v>
+        <v>0.353248244299638</v>
       </c>
       <c r="E17" t="n">
-        <v>0.413079299874213</v>
+        <v>0.413471207729657</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.366216836933814</v>
+        <v>-0.366182671495625</v>
       </c>
       <c r="G17" t="n">
-        <v>0.336706414920719</v>
+        <v>0.337108060938717</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0185674360613209</v>
+        <v>0.0176867914490051</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0101181120988064</v>
+        <v>-0.0102350815071383</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.202458165499757</v>
+        <v>-0.202560278386849</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.349117868677267</v>
+        <v>-0.348283736751229</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0613649670356304</v>
+        <v>-0.0601214003248578</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0489367068435345</v>
+        <v>-0.0476201888499929</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.027565603082974</v>
+        <v>-0.0270732798902266</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.279901730905413</v>
+        <v>-0.279337491254563</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.391866397831125</v>
+        <v>-0.392072664651003</v>
       </c>
       <c r="R17" t="n">
-        <v>0.021165120056399</v>
+        <v>0.0225006524913329</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.334758389544339</v>
+        <v>-0.333577304780091</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.251766826135129</v>
+        <v>-0.251511607621082</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0265361979150091</v>
+        <v>-0.0266528862767632</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0820264189424003</v>
+        <v>-0.0828026535873346</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.035654441978606</v>
+        <v>-0.0360580506181215</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0820264189424003</v>
+        <v>-0.0828026535873346</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.0207126191252628</v>
+        <v>-0.0190155701468691</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00264050977590694</v>
+        <v>0.00171864763417577</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.126435154877314</v>
+        <v>-0.125611402683561</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.124217324502276</v>
+        <v>-0.0885965457005392</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.109194645920681</v>
+        <v>-0.0979192142599139</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.143577157535179</v>
+        <v>-0.139527535127702</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.0375776915588851</v>
+        <v>-0.0380129451829385</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.0609098393906268</v>
+        <v>-0.0613609411090961</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.0485719823855468</v>
+        <v>-0.0489434107802794</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.00145606775294762</v>
+        <v>-0.000389031059676352</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0587060542845073</v>
+        <v>0.0549879881201004</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.00311362478264154</v>
+        <v>-0.00177968420175377</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.0155240182171327</v>
+        <v>-0.0147109792793477</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0272366409163896</v>
+        <v>0.0268843122291735</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0361620957155459</v>
+        <v>0.0358742318711363</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0340751390460118</v>
+        <v>0.0332801690991252</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.0178573958556339</v>
+        <v>-0.0186443685296302</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.220524072746662</v>
+        <v>0.220526521011212</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.00635805728822068</v>
+        <v>-0.00667956599643813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.509399023856202</v>
+        <v>-0.509448187674947</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.384331845863788</v>
+        <v>-0.384486496523887</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.574882655584445</v>
+        <v>-0.574979113339316</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.553743999375876</v>
+        <v>-0.553832821521786</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.656378127519877</v>
+        <v>-0.65646271327681</v>
       </c>
       <c r="F18" t="n">
-        <v>0.493001852934848</v>
+        <v>0.493038682917207</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.327671223035103</v>
+        <v>-0.327838345420843</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0821573337291504</v>
+        <v>-0.0818383281246165</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0321427283783124</v>
+        <v>-0.03209667555542</v>
       </c>
       <c r="J18" t="n">
-        <v>0.13374535704886</v>
+        <v>0.133823934013923</v>
       </c>
       <c r="K18" t="n">
-        <v>0.170119900965611</v>
+        <v>0.169916118695996</v>
       </c>
       <c r="L18" t="n">
-        <v>0.119987242067949</v>
+        <v>0.119530127257563</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0482785322957056</v>
+        <v>-0.0486777033760321</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0735369143379097</v>
+        <v>-0.073683959383962</v>
       </c>
       <c r="O18" t="n">
-        <v>0.032474915299532</v>
+        <v>0.0323623621419053</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.391866397831125</v>
+        <v>-0.392072664651003</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0174119775981046</v>
+        <v>-0.0178653051555961</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0822407416157022</v>
+        <v>0.0819337305806809</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0237501779704038</v>
+        <v>0.0237336898225535</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0335655476869494</v>
+        <v>-0.0335146331982717</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0877750603459803</v>
+        <v>0.0880411290421139</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00539202505332795</v>
+        <v>0.00553953092051006</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0877750603459803</v>
+        <v>0.0880411290421139</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.010063411473739</v>
+        <v>0.00948835798278593</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.0600926343141854</v>
+        <v>-0.059759002048501</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.158702207516836</v>
+        <v>0.158426119422379</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0733661489275034</v>
+        <v>0.048206314739271</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.115504008835402</v>
+        <v>0.123240736589863</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0527495326743832</v>
+        <v>0.0550587009411986</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.00911053427223049</v>
+        <v>-0.00894923271650724</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.121119040771933</v>
+        <v>0.121270636786015</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.00172953584813527</v>
+        <v>-0.00158800425291862</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0214294159697141</v>
+        <v>0.0210575646368221</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.0645312811125915</v>
+        <v>-0.063118803058038</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.013183194717695</v>
+        <v>0.0127224764407527</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.0398804446907651</v>
+        <v>-0.0401403023275743</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.0164452406243648</v>
+        <v>-0.0163313460550228</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.0459818050268372</v>
+        <v>-0.0458891014069084</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0.224524880863557</v>
+        <v>-0.224205809236124</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.0150270375306872</v>
+        <v>-0.0147485273412303</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0.117094607041189</v>
+        <v>-0.117147140353447</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0.00843148257871953</v>
+        <v>-0.00831906110582857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0398093009580157</v>
+        <v>0.0400626044112728</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0554038094015123</v>
+        <v>0.0559720723045719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0841572927178744</v>
+        <v>0.0846461036805466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.099289247457512</v>
+        <v>0.0996955493381032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0609916840474264</v>
+        <v>0.0616102351540538</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00273621793345741</v>
+        <v>-0.0029642771604167</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00157948491580675</v>
+        <v>-0.000981118753012909</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0256847759030891</v>
+        <v>0.0249719777434637</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0596137009101292</v>
+        <v>0.0594795355957319</v>
       </c>
       <c r="J19" t="n">
-        <v>0.18007743990945</v>
+        <v>0.179750157307929</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.073455901307138</v>
+        <v>-0.0729983342899264</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.013667643667181</v>
+        <v>-0.0127151692364252</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.00913309834160083</v>
+        <v>-0.00811554647045641</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.00374337977125365</v>
+        <v>-0.00336495905124726</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0321393122491289</v>
+        <v>-0.0318642760282971</v>
       </c>
       <c r="P19" t="n">
-        <v>0.021165120056399</v>
+        <v>0.0225006524913329</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0174119775981046</v>
+        <v>-0.0178653051555961</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.215655911219182</v>
+        <v>0.216161341018902</v>
       </c>
       <c r="T19" t="n">
-        <v>0.160588338563152</v>
+        <v>0.1605334422811</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0550224447295245</v>
+        <v>0.0548796963335519</v>
       </c>
       <c r="V19" t="n">
-        <v>0.00903931927927791</v>
+        <v>0.00833687838050577</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0604358557611217</v>
+        <v>0.0600483508897124</v>
       </c>
       <c r="X19" t="n">
-        <v>0.00903931927927791</v>
+        <v>0.00833687838050577</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.00187963017686709</v>
+        <v>0.00321563884830944</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.125619959622861</v>
+        <v>0.124779774097133</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0168441360923537</v>
+        <v>0.017394700516483</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.0844233772124778</v>
+        <v>-0.111461010239196</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.0811275699926428</v>
+        <v>-0.0697475779798279</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.127643393364662</v>
+        <v>0.141053096055063</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0515532832011429</v>
+        <v>0.051143544580562</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0875160637088003</v>
+        <v>0.0870528211730249</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0777754568222398</v>
+        <v>0.0773945640183994</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0484999825638992</v>
+        <v>0.0493147894759382</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.0074995552273538</v>
+        <v>-0.0102551814680153</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.0168687544975637</v>
+        <v>-0.0157801583023546</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0204368089055497</v>
+        <v>0.0210633921202508</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.00485416021261687</v>
+        <v>0.00458697073866707</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.023502281535749</v>
+        <v>0.023282403565931</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.0779961244652971</v>
+        <v>-0.0785520583676573</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.112999496656417</v>
+        <v>0.112267231547862</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.0431184391310017</v>
+        <v>-0.0429397895060967</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0795668695380301</v>
+        <v>0.0792572725859532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.118978510171128</v>
+        <v>-0.118782217783634</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.260685701555751</v>
+        <v>-0.260219599265474</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.164936366607807</v>
+        <v>-0.164548499419867</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.182988335225868</v>
+        <v>-0.182646690985484</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.173670390885979</v>
+        <v>-0.173196719577397</v>
       </c>
       <c r="F20" t="n">
-        <v>0.233098105090266</v>
+        <v>0.232905731639768</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.269909030635315</v>
+        <v>-0.269447657962656</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0456890486915831</v>
+        <v>-0.0460908460171815</v>
       </c>
       <c r="I20" t="n">
-        <v>0.236473956877638</v>
+        <v>0.236363460320684</v>
       </c>
       <c r="J20" t="n">
-        <v>0.340714039300883</v>
+        <v>0.340500948141564</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0998850698911349</v>
+        <v>0.100107126316559</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.128792628413221</v>
+        <v>-0.128144047712038</v>
       </c>
       <c r="M20" t="n">
-        <v>0.019564191061692</v>
+        <v>0.0201637331223726</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.00798410624380942</v>
+        <v>-0.00775347423528055</v>
       </c>
       <c r="O20" t="n">
-        <v>0.120998112520203</v>
+        <v>0.121125723062888</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.334758389544339</v>
+        <v>-0.333577304780091</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0822407416157022</v>
+        <v>0.0819337305806809</v>
       </c>
       <c r="R20" t="n">
-        <v>0.215655911219182</v>
+        <v>0.216161341018902</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0.736946486108031</v>
+        <v>0.736816957900037</v>
       </c>
       <c r="U20" t="n">
-        <v>0.263939219779544</v>
+        <v>0.263816016503697</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.0229081879332123</v>
+        <v>-0.0233210156612591</v>
       </c>
       <c r="W20" t="n">
-        <v>0.191243277540368</v>
+        <v>0.190980599165229</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.0229081879332123</v>
+        <v>-0.0233210156612591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0911172639658503</v>
+        <v>0.0918376928421233</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.174130887100265</v>
+        <v>0.173602729741376</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.325776200653119</v>
+        <v>0.326004847043122</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.363746051236567</v>
+        <v>0.287066661594121</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.212724297557408</v>
+        <v>0.17863988660234</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.387860369299938</v>
+        <v>0.36358611716763</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0744397700239305</v>
+        <v>0.0741901614686132</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.181622107584584</v>
+        <v>0.181323316192542</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.226970572478093</v>
+        <v>0.226709979277331</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0944337425674185</v>
+        <v>0.0949040432278818</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.0806634120812868</v>
+        <v>-0.082054408066021</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.114020874109133</v>
+        <v>0.114588656425606</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0207907224025899</v>
+        <v>0.0211724174382502</v>
       </c>
       <c r="AL20" t="n">
-        <v>-0.0469338271488154</v>
+        <v>-0.0470834214198693</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0282557812852604</v>
+        <v>0.0281240485677346</v>
       </c>
       <c r="AN20" t="n">
-        <v>-0.111212148308902</v>
+        <v>-0.111542491979171</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.21155778878548</v>
+        <v>0.211080405287209</v>
       </c>
       <c r="AP20" t="n">
-        <v>-0.157801804367433</v>
+        <v>-0.157674234985728</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.242034529395928</v>
+        <v>0.241817811831292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0229182716979957</v>
+        <v>-0.0229090431186447</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.172828495867607</v>
+        <v>-0.172780827561101</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.15990882363474</v>
+        <v>-0.159870377045174</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.174479433195719</v>
+        <v>-0.174447407763973</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.116660367800139</v>
+        <v>-0.116616660886323</v>
       </c>
       <c r="F21" t="n">
-        <v>0.155607677543971</v>
+        <v>0.155596875087121</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.116634586856946</v>
+        <v>-0.116597417843202</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0332444347336938</v>
+        <v>-0.0332582506949814</v>
       </c>
       <c r="I21" t="n">
-        <v>0.141570321560437</v>
+        <v>0.141566512612324</v>
       </c>
       <c r="J21" t="n">
-        <v>0.105315137603998</v>
+        <v>0.105305851427662</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00288609304404256</v>
+        <v>0.00289839711450767</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.129435901515991</v>
+        <v>-0.129355252870831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0119883016969693</v>
+        <v>0.0120134443915073</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.00484484122393947</v>
+        <v>-0.00483307700216504</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0184227146733455</v>
+        <v>-0.0184143486373816</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.251766826135129</v>
+        <v>-0.251511607621082</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0237501779704038</v>
+        <v>0.0237336898225535</v>
       </c>
       <c r="R21" t="n">
-        <v>0.160588338563152</v>
+        <v>0.1605334422811</v>
       </c>
       <c r="S21" t="n">
-        <v>0.736946486108031</v>
+        <v>0.736816957900037</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0.204315054094792</v>
+        <v>0.204310364882539</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0528939234519592</v>
+        <v>0.0528610838939291</v>
       </c>
       <c r="W21" t="n">
-        <v>0.134553043600268</v>
+        <v>0.134534755484653</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0528939234519592</v>
+        <v>0.0528610838939291</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0816688760376376</v>
+        <v>0.0816429843289433</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.036210557641116</v>
+        <v>0.0361789974967228</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.245381955971317</v>
+        <v>0.245363655063556</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.434631901164168</v>
+        <v>0.413588207950005</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0992228295667905</v>
+        <v>0.0693623920014714</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.511203816141442</v>
+        <v>0.471031069122088</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0463736626042354</v>
+        <v>0.046359115018858</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.127923930143664</v>
+        <v>0.127901717842353</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.147508383376417</v>
+        <v>0.147490639827756</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0310000080862101</v>
+        <v>0.0310157257999757</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.0586156590568917</v>
+        <v>-0.0584930635729795</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.115485285888871</v>
+        <v>0.11545758963532</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.0295403381026636</v>
+        <v>0.0295543225831488</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.0605128129903298</v>
+        <v>-0.060518905989834</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.00500602829330563</v>
+        <v>0.00499964223204139</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0346705244647358</v>
+        <v>0.0346459634255536</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.100667253283026</v>
+        <v>0.100628194895953</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.082579544734579</v>
+        <v>-0.0825739034334539</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.14782036657224</v>
+        <v>0.147807610284866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03809676124489</v>
+        <v>0.0380669857955581</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00789482450993504</v>
+        <v>0.00783138512100193</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0308538674636353</v>
+        <v>-0.0309052836081712</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0233105814435104</v>
+        <v>-0.0233561636023417</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00458074939904958</v>
+        <v>0.00451199167958372</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0820259427864836</v>
+        <v>0.082046945330264</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.112976879455043</v>
+        <v>-0.113018862775961</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.107824079409192</v>
+        <v>-0.10772915046934</v>
       </c>
       <c r="I22" t="n">
-        <v>0.977944544193674</v>
+        <v>0.977944717339019</v>
       </c>
       <c r="J22" t="n">
-        <v>0.334260975391068</v>
+        <v>0.334274302778251</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0329661041131135</v>
+        <v>-0.0330053835278499</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.157561854832819</v>
+        <v>-0.157593573256455</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.123665786880308</v>
+        <v>-0.123710792623828</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.145163699964771</v>
+        <v>-0.145191919524458</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0729956608175825</v>
+        <v>-0.073019233095445</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0265361979150091</v>
+        <v>-0.0266528862767632</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0335655476869494</v>
+        <v>-0.0335146331982717</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0550224447295245</v>
+        <v>0.0548796963335519</v>
       </c>
       <c r="S22" t="n">
-        <v>0.263939219779544</v>
+        <v>0.263816016503697</v>
       </c>
       <c r="T22" t="n">
-        <v>0.204315054094792</v>
+        <v>0.204310364882539</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.014107655205928</v>
+        <v>-0.0140334765124367</v>
       </c>
       <c r="W22" t="n">
-        <v>0.672148701854783</v>
+        <v>0.672143019674248</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.014107655205928</v>
+        <v>-0.0140334765124367</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.163051665741859</v>
+        <v>0.162781129864653</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.180250970979358</v>
+        <v>0.18028056877978</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.11788041101627</v>
+        <v>0.117805389631452</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.245570827954676</v>
+        <v>0.21173432221588</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.234541131564911</v>
+        <v>-0.256612614503251</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.0625339854931151</v>
+        <v>-0.0949492329096859</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.304659320451898</v>
+        <v>0.304676356781596</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.684697165912434</v>
+        <v>0.684682963265131</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.698164267983324</v>
+        <v>0.698158909947256</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.0145449159644041</v>
+        <v>-0.0146275150980389</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.0644021472835889</v>
+        <v>0.0644583363652218</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.084796681657358</v>
+        <v>0.0846426970607762</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.0448514795414353</v>
+        <v>0.0447773240843505</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.0317365116061</v>
+        <v>-0.031708334907613</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.00278634370728164</v>
+        <v>0.00280735303902861</v>
       </c>
       <c r="AN22" t="n">
-        <v>-0.177999065473921</v>
+        <v>-0.177905223553651</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.215293679444069</v>
+        <v>0.215317448276811</v>
       </c>
       <c r="AP22" t="n">
-        <v>-0.0442523933185601</v>
+        <v>-0.0442674284553602</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.914093228528326</v>
+        <v>0.91408603526069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.00322411289620076</v>
+        <v>0.00304827719790412</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.049640034805876</v>
+        <v>-0.0500055251345882</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0664316782967688</v>
+        <v>-0.0667538589041955</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0711798488718817</v>
+        <v>-0.0714549844279882</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0461986345513275</v>
+        <v>-0.0465995734073191</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0664377118364358</v>
+        <v>0.0665668064601125</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00781952540496984</v>
+        <v>0.00743860066483312</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0228414599016165</v>
+        <v>0.0232700171113584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0219285955444121</v>
+        <v>-0.021859678950219</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0885783651139428</v>
+        <v>0.0886987093215895</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0897394682142441</v>
+        <v>-0.0899732243017801</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0455762102302963</v>
+        <v>-0.0461423809760345</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0314026613806401</v>
+        <v>0.0307431670773491</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0369838811413313</v>
+        <v>0.036735351592591</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.107344854308926</v>
+        <v>-0.107480276218002</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0820264189424003</v>
+        <v>-0.0828026535873346</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0877750603459803</v>
+        <v>0.0880411290421139</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00903931927927791</v>
+        <v>0.00833687838050577</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0229081879332123</v>
+        <v>-0.0233210156612591</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0528939234519592</v>
+        <v>0.0528610838939291</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.014107655205928</v>
+        <v>-0.0140334765124367</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0.317039240888224</v>
+        <v>0.317173762520268</v>
       </c>
       <c r="X23" t="n">
         <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.348005301107696</v>
+        <v>0.346797935024864</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.0320042953949906</v>
+        <v>-0.0315210956152925</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.0412884409909336</v>
+        <v>-0.0416292063017474</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.134078668018676</v>
+        <v>0.184575542081347</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.0567736136176595</v>
+        <v>-0.0755593551118325</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0524682668468813</v>
+        <v>0.0395179278113624</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0117249049588561</v>
+        <v>0.0119607931116714</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.061984451075325</v>
+        <v>0.0622246020135464</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0159996686172149</v>
+        <v>0.0162068114638741</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.00529292266547462</v>
+        <v>0.00474723863205317</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.051445262322179</v>
+        <v>0.0530151171028798</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0403927144321248</v>
+        <v>0.0396853312063033</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.019648343950845</v>
+        <v>-0.0200463724082319</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.0409801753381368</v>
+        <v>-0.0408025622206812</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.0558892123174668</v>
+        <v>-0.0557451528017403</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.0658379766098232</v>
+        <v>-0.0654249328691062</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0206436470746181</v>
+        <v>0.02104555052827</v>
       </c>
       <c r="AP23" t="n">
-        <v>-0.000636714510915796</v>
+        <v>-0.000734322835967121</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-0.00188168459062202</v>
+        <v>-0.00171456201446338</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0514443841412434</v>
+        <v>0.051351410279086</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0130710170095758</v>
+        <v>-0.0132622152809358</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0362473277122571</v>
+        <v>-0.0364148556016854</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.036224981618907</v>
+        <v>-0.0363696413848177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00281600633247864</v>
+        <v>0.00260318367287807</v>
       </c>
       <c r="F24" t="n">
-        <v>0.086590755049499</v>
+        <v>0.0866571419556403</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.127302886592316</v>
+        <v>-0.127465780899053</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.121885059873709</v>
+        <v>-0.121630316067206</v>
       </c>
       <c r="I24" t="n">
-        <v>0.680496511713778</v>
+        <v>0.680487510956109</v>
       </c>
       <c r="J24" t="n">
-        <v>0.378140338645173</v>
+        <v>0.378182086200191</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0281341242668672</v>
+        <v>-0.0282617726933309</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.155418233771834</v>
+        <v>-0.155647063653143</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.101305571763378</v>
+        <v>-0.101574959397804</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.139807603570996</v>
+        <v>-0.139910860430611</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0716542185194713</v>
+        <v>-0.0717299264028562</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.035654441978606</v>
+        <v>-0.0360580506181215</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.00539202505332795</v>
+        <v>0.00553953092051006</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0604358557611217</v>
+        <v>0.0600483508897124</v>
       </c>
       <c r="S24" t="n">
-        <v>0.191243277540368</v>
+        <v>0.190980599165229</v>
       </c>
       <c r="T24" t="n">
-        <v>0.134553043600268</v>
+        <v>0.134534755484653</v>
       </c>
       <c r="U24" t="n">
-        <v>0.672148701854783</v>
+        <v>0.672143019674248</v>
       </c>
       <c r="V24" t="n">
-        <v>0.317039240888224</v>
+        <v>0.317173762520268</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0.317039240888224</v>
+        <v>0.317173762520268</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.272669229125227</v>
+        <v>0.272004238895559</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.189620779172133</v>
+        <v>0.189799152145838</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0959195689356312</v>
+        <v>0.0957208904652805</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.22618850328924</v>
+        <v>0.205960055118423</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.275917294222626</v>
+        <v>-0.301679975376136</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.130355235726803</v>
+        <v>-0.167579430379251</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.263971620666881</v>
+        <v>0.264060372203921</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.590295890007747</v>
+        <v>0.590348433707236</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.725122252167118</v>
+        <v>0.725151489209809</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.0158159191523661</v>
+        <v>-0.0160835786558205</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.0902926274476335</v>
+        <v>0.0908577116097842</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.093193503680154</v>
+        <v>0.0927978910335848</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.018981969972706</v>
+        <v>0.0187724908547462</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.0236696813692924</v>
+        <v>-0.0235831971992063</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.00201280916070156</v>
+        <v>-0.00194672601231106</v>
       </c>
       <c r="AN24" t="n">
-        <v>-0.233550886719048</v>
+        <v>-0.233302568219403</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.309603583687229</v>
+        <v>0.309734058132971</v>
       </c>
       <c r="AP24" t="n">
-        <v>-0.0436617834085734</v>
+        <v>-0.0437081852332733</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.621613638093428</v>
+        <v>0.621643285607491</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.00322411289620076</v>
+        <v>0.00304827719790412</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.049640034805876</v>
+        <v>-0.0500055251345882</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0664316782967688</v>
+        <v>-0.0667538589041955</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0711798488718817</v>
+        <v>-0.0714549844279882</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0461986345513275</v>
+        <v>-0.0465995734073191</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0664377118364358</v>
+        <v>0.0665668064601125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00781952540496984</v>
+        <v>0.00743860066483312</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0228414599016165</v>
+        <v>0.0232700171113584</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0219285955444121</v>
+        <v>-0.021859678950219</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0885783651139428</v>
+        <v>0.0886987093215895</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0897394682142441</v>
+        <v>-0.0899732243017801</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0455762102302963</v>
+        <v>-0.0461423809760345</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0314026613806401</v>
+        <v>0.0307431670773491</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0369838811413313</v>
+        <v>0.036735351592591</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.107344854308926</v>
+        <v>-0.107480276218002</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0820264189424003</v>
+        <v>-0.0828026535873346</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0877750603459803</v>
+        <v>0.0880411290421139</v>
       </c>
       <c r="R25" t="n">
-        <v>0.00903931927927791</v>
+        <v>0.00833687838050577</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0229081879332123</v>
+        <v>-0.0233210156612591</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0528939234519592</v>
+        <v>0.0528610838939291</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.014107655205928</v>
+        <v>-0.0140334765124367</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0.317039240888224</v>
+        <v>0.317173762520268</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.348005301107696</v>
+        <v>0.346797935024864</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.0320042953949906</v>
+        <v>-0.0315210956152925</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.0412884409909336</v>
+        <v>-0.0416292063017474</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.134078668018676</v>
+        <v>0.184575542081347</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.0567736136176595</v>
+        <v>-0.0755593551118325</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0524682668468813</v>
+        <v>0.0395179278113624</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0117249049588561</v>
+        <v>0.0119607931116714</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.061984451075325</v>
+        <v>0.0622246020135464</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0159996686172149</v>
+        <v>0.0162068114638741</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.00529292266547462</v>
+        <v>0.00474723863205317</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.051445262322179</v>
+        <v>0.0530151171028798</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.0403927144321248</v>
+        <v>0.0396853312063033</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.019648343950845</v>
+        <v>-0.0200463724082319</v>
       </c>
       <c r="AL25" t="n">
-        <v>-0.0409801753381368</v>
+        <v>-0.0408025622206812</v>
       </c>
       <c r="AM25" t="n">
-        <v>-0.0558892123174668</v>
+        <v>-0.0557451528017403</v>
       </c>
       <c r="AN25" t="n">
-        <v>-0.0658379766098232</v>
+        <v>-0.0654249328691062</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0206436470746181</v>
+        <v>0.02104555052827</v>
       </c>
       <c r="AP25" t="n">
-        <v>-0.000636714510915796</v>
+        <v>-0.000734322835967121</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-0.00188168459062202</v>
+        <v>-0.00171456201446338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0169477882553246</v>
+        <v>0.0172702217720089</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0231395866028448</v>
+        <v>0.0238573673063435</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0714002043336292</v>
+        <v>-0.0706666868613741</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0735628292793423</v>
+        <v>-0.0729219143139115</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0281490845596008</v>
+        <v>-0.0273113908088706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.108433009989039</v>
+        <v>0.10806231442252</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0790047778483647</v>
+        <v>-0.0782001415908464</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00357066216148309</v>
+        <v>0.00272286060592285</v>
       </c>
       <c r="I26" t="n">
-        <v>0.189174689882034</v>
+        <v>0.188896386217349</v>
       </c>
       <c r="J26" t="n">
-        <v>0.225344162272034</v>
+        <v>0.224882212347288</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0239825354460857</v>
+        <v>0.024462350377034</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0565552155314532</v>
+        <v>-0.0553421858774509</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0363236668201167</v>
+        <v>-0.0350492055656872</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0312561035289645</v>
+        <v>-0.0307705142920605</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.00932371989917566</v>
+        <v>-0.00900354961091192</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0207126191252628</v>
+        <v>-0.0190155701468691</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.010063411473739</v>
+        <v>0.00948835798278593</v>
       </c>
       <c r="R26" t="n">
-        <v>0.00187963017686709</v>
+        <v>0.00321563884830944</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0911172639658503</v>
+        <v>0.0918376928421233</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0816688760376376</v>
+        <v>0.0816429843289433</v>
       </c>
       <c r="U26" t="n">
-        <v>0.163051665741859</v>
+        <v>0.162781129864653</v>
       </c>
       <c r="V26" t="n">
-        <v>0.348005301107696</v>
+        <v>0.346797935024864</v>
       </c>
       <c r="W26" t="n">
-        <v>0.272669229125227</v>
+        <v>0.272004238895559</v>
       </c>
       <c r="X26" t="n">
-        <v>0.348005301107696</v>
+        <v>0.346797935024864</v>
       </c>
       <c r="Y26" t="n">
         <v>1</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.102346099686579</v>
+        <v>0.101336065509456</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0518824428173638</v>
+        <v>0.0525174524968933</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.156085545859487</v>
+        <v>0.123041226468025</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.186980534717828</v>
+        <v>-0.192578240303682</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.0699875889475393</v>
+        <v>-0.0805441786077598</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.193781558080103</v>
+        <v>0.193150504668095</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.167500500667734</v>
+        <v>0.166853681972538</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.203278111075028</v>
+        <v>0.202695000250735</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.0462836865865308</v>
+        <v>0.047275071856243</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.0306004071143912</v>
+        <v>0.0270737964804126</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.0785886201676195</v>
+        <v>0.0797874139367727</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.084642613168644</v>
+        <v>0.0853392231568153</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0698347543769298</v>
+        <v>0.0694536066201151</v>
       </c>
       <c r="AM26" t="n">
-        <v>-0.0320646087425139</v>
+        <v>-0.0322893460895562</v>
       </c>
       <c r="AN26" t="n">
-        <v>-0.177629652889597</v>
+        <v>-0.178200034291226</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.1726672081433</v>
+        <v>0.171703510949619</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.0277918781701239</v>
+        <v>0.0279570594039444</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.175116028963781</v>
+        <v>0.174646961323548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0366252318714414</v>
+        <v>0.0364286535533467</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0254458053481281</v>
+        <v>0.0250258731336094</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0125483400055481</v>
+        <v>0.0121756164734405</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0142454428321343</v>
+        <v>0.0139234634895249</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0248443057469078</v>
+        <v>0.0243859247278523</v>
       </c>
       <c r="F27" t="n">
-        <v>0.054847277829885</v>
+        <v>0.0549868839903359</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.112853859695836</v>
+        <v>-0.113209494028337</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0641160781079044</v>
+        <v>-0.063619538395445</v>
       </c>
       <c r="I27" t="n">
-        <v>0.219623474858975</v>
+        <v>0.219635825399134</v>
       </c>
       <c r="J27" t="n">
-        <v>0.385620751021549</v>
+        <v>0.385666808161022</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0969933317152142</v>
+        <v>0.0966846661700847</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0390601735954202</v>
+        <v>0.0384023242070169</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0810021410903365</v>
+        <v>-0.0816232764468196</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0905700318132017</v>
+        <v>-0.0907948451218083</v>
       </c>
       <c r="O27" t="n">
-        <v>0.103723212655656</v>
+        <v>0.103521667480365</v>
       </c>
       <c r="P27" t="n">
-        <v>0.00264050977590694</v>
+        <v>0.00171864763417577</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.0600926343141854</v>
+        <v>-0.059759002048501</v>
       </c>
       <c r="R27" t="n">
-        <v>0.125619959622861</v>
+        <v>0.124779774097133</v>
       </c>
       <c r="S27" t="n">
-        <v>0.174130887100265</v>
+        <v>0.173602729741376</v>
       </c>
       <c r="T27" t="n">
-        <v>0.036210557641116</v>
+        <v>0.0361789974967228</v>
       </c>
       <c r="U27" t="n">
-        <v>0.180250970979358</v>
+        <v>0.18028056877978</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0320042953949906</v>
+        <v>-0.0315210956152925</v>
       </c>
       <c r="W27" t="n">
-        <v>0.189620779172133</v>
+        <v>0.189799152145838</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0320042953949906</v>
+        <v>-0.0315210956152925</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.102346099686579</v>
+        <v>0.101336065509456</v>
       </c>
       <c r="Z27" t="n">
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0684453834584238</v>
+        <v>0.0680400018411529</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0641725904652873</v>
+        <v>0.0244413032659446</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.254093161225438</v>
+        <v>-0.258119534677707</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.198152186508956</v>
+        <v>-0.208574777442495</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.151517292465336</v>
+        <v>0.151724202308126</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.20404580684474</v>
+        <v>0.204254492130569</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.175625574353253</v>
+        <v>0.175797882890188</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.054348546506119</v>
+        <v>-0.0548942053975653</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.0267194895720372</v>
+        <v>0.0284939879123244</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.0090319193661629</v>
+        <v>-0.00974562300465496</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.0501619648889266</v>
+        <v>-0.0505720198913451</v>
       </c>
       <c r="AL27" t="n">
-        <v>-0.0184512900685589</v>
+        <v>-0.0182681409804165</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.00757736801517335</v>
+        <v>-0.00743631938687959</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.186354241717887</v>
+        <v>-0.18586401865615</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.258939244513984</v>
+        <v>0.259261797451632</v>
       </c>
       <c r="AP27" t="n">
-        <v>-0.0190716948353206</v>
+        <v>-0.0191707311962513</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.202399548003829</v>
+        <v>0.202520036737839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.088854799937063</v>
+        <v>-0.0886974436827773</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0956709208102289</v>
+        <v>-0.0953300203352673</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.113447159297723</v>
+        <v>-0.113135856839973</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.113408956266576</v>
+        <v>-0.113140312795701</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.111954541964382</v>
+        <v>-0.111576119285015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0959388629420048</v>
+        <v>0.0958052922043515</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.101491037268477</v>
+        <v>-0.101154440940773</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.093882120903321</v>
+        <v>-0.0942026570751186</v>
       </c>
       <c r="I28" t="n">
-        <v>0.111965387989374</v>
+        <v>0.11189703405341</v>
       </c>
       <c r="J28" t="n">
-        <v>0.204214540267781</v>
+        <v>0.204065815555564</v>
       </c>
       <c r="K28" t="n">
-        <v>0.119697791327367</v>
+        <v>0.119881882511097</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00363193705673209</v>
+        <v>0.00411056395658266</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.027858723578509</v>
+        <v>-0.0273260096288288</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0830898190586933</v>
+        <v>-0.0828801088270011</v>
       </c>
       <c r="O28" t="n">
-        <v>0.137900847542243</v>
+        <v>0.138008061257664</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.126435154877314</v>
+        <v>-0.125611402683561</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.158702207516836</v>
+        <v>0.158426119422379</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0168441360923537</v>
+        <v>0.017394700516483</v>
       </c>
       <c r="S28" t="n">
-        <v>0.325776200653119</v>
+        <v>0.326004847043122</v>
       </c>
       <c r="T28" t="n">
-        <v>0.245381955971317</v>
+        <v>0.245363655063556</v>
       </c>
       <c r="U28" t="n">
-        <v>0.11788041101627</v>
+        <v>0.117805389631452</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.0412884409909336</v>
+        <v>-0.0416292063017474</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0959195689356312</v>
+        <v>0.0957208904652805</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.0412884409909336</v>
+        <v>-0.0416292063017474</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0518824428173638</v>
+        <v>0.0525174524968933</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0684453834584238</v>
+        <v>0.0680400018411529</v>
       </c>
       <c r="AA28" t="n">
         <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.127268737852045</v>
+        <v>0.128820051809457</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0840425676307884</v>
+        <v>0.0584362938002159</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.12405222025592</v>
+        <v>0.105194866166972</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0571132056779914</v>
+        <v>0.0569078789048845</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.121776207753156</v>
+        <v>0.121540475171074</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.122154702159421</v>
+        <v>0.121959965061768</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.00237748542133339</v>
+        <v>0.00281511719476084</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.0483812674165864</v>
+        <v>-0.0496285296386259</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.0139641898411791</v>
+        <v>0.0145025520212507</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.00542994456540227</v>
+        <v>0.00575639205745843</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.000285538359924169</v>
+        <v>-0.000420730487852358</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.0267306514121806</v>
+        <v>-0.0268319294542644</v>
       </c>
       <c r="AN28" t="n">
-        <v>-0.0652493213510044</v>
+        <v>-0.0655419455036116</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.133205046048743</v>
+        <v>0.132828627365135</v>
       </c>
       <c r="AP28" t="n">
-        <v>-0.059999976343724</v>
+        <v>-0.0599116679976465</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.113081488703197</v>
+        <v>0.112926934594248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.0569619786341187</v>
+        <v>-0.013781463804146</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.130792576002331</v>
+        <v>-0.0634418386039441</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.173803322930077</v>
+        <v>-0.155043781773527</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.190175007414711</v>
+        <v>-0.17927616617941</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.147130101597272</v>
+        <v>-0.11197600008172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.175742469150173</v>
+        <v>0.0986734889561434</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.104071528820498</v>
+        <v>-0.0553892695249594</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00795824171804369</v>
+        <v>-0.0351268524051106</v>
       </c>
       <c r="I29" t="n">
-        <v>0.220839005180739</v>
+        <v>0.183817809824719</v>
       </c>
       <c r="J29" t="n">
-        <v>0.128185984115467</v>
+        <v>0.0797689435727715</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0916351172066284</v>
+        <v>-0.144877362684189</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.140093575088851</v>
+        <v>-0.187230791538711</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0572888545799218</v>
+        <v>0.0493027614607089</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0581824262178062</v>
+        <v>0.0247441097073642</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.110853688108189</v>
+        <v>-0.146635738762319</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.124217324502276</v>
+        <v>-0.0885965457005392</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0733661489275034</v>
+        <v>0.048206314739271</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0844233772124778</v>
+        <v>-0.111461010239196</v>
       </c>
       <c r="S29" t="n">
-        <v>0.363746051236567</v>
+        <v>0.287066661594121</v>
       </c>
       <c r="T29" t="n">
-        <v>0.434631901164168</v>
+        <v>0.413588207950005</v>
       </c>
       <c r="U29" t="n">
-        <v>0.245570827954676</v>
+        <v>0.21173432221588</v>
       </c>
       <c r="V29" t="n">
-        <v>0.134078668018676</v>
+        <v>0.184575542081347</v>
       </c>
       <c r="W29" t="n">
-        <v>0.22618850328924</v>
+        <v>0.205960055118423</v>
       </c>
       <c r="X29" t="n">
-        <v>0.134078668018676</v>
+        <v>0.184575542081347</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.156085545859487</v>
+        <v>0.123041226468025</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0641725904652873</v>
+        <v>0.0244413032659446</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.127268737852045</v>
+        <v>0.128820051809457</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.0604231629714435</v>
+        <v>-0.151828294076705</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0807004934121151</v>
+        <v>0.00647997051385265</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0955413441681796</v>
+        <v>0.0639676267466047</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.222959611319889</v>
+        <v>0.174364821855281</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.224860414280479</v>
+        <v>0.178627917008146</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.00340140441469204</v>
+        <v>-0.039236225305918</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.0435518834489677</v>
+        <v>0.0370844020062605</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.113594672598466</v>
+        <v>0.0736840920514518</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.00971959306863837</v>
+        <v>0.0167535401441125</v>
       </c>
       <c r="AL29" t="n">
-        <v>-0.0552445189254218</v>
+        <v>-0.0209460275799234</v>
       </c>
       <c r="AM29" t="n">
-        <v>-0.0238738426641076</v>
+        <v>-0.00961234062767038</v>
       </c>
       <c r="AN29" t="n">
-        <v>-0.0715154891496917</v>
+        <v>0.000825276632638244</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.154278047659767</v>
+        <v>0.13493908447231</v>
       </c>
       <c r="AP29" t="n">
-        <v>-0.0186725436279204</v>
+        <v>-0.0172742604543275</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.210760822203424</v>
+        <v>0.180430168153589</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.112887684007756</v>
+        <v>-0.119182553438154</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.178851606049107</v>
+        <v>-0.176294009608871</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00916121058878672</v>
+        <v>-0.00980403724012686</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0147303797508012</v>
+        <v>-0.0124016603164683</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0756578483803954</v>
+        <v>-0.0822105536637699</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0379061197112396</v>
+        <v>0.036185368570733</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0334773978165893</v>
+        <v>0.0403509378523225</v>
       </c>
       <c r="H30" t="n">
-        <v>0.134670205935996</v>
+        <v>0.149653314320494</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.292976137032416</v>
+        <v>-0.316661654413326</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.305105828409908</v>
+        <v>-0.347610305794523</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.14660111908534</v>
+        <v>-0.122886120383167</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.110680137013628</v>
+        <v>-0.0790856386123505</v>
       </c>
       <c r="M30" t="n">
-        <v>0.157328005550301</v>
+        <v>0.160255554825464</v>
       </c>
       <c r="N30" t="n">
-        <v>0.172147397968844</v>
+        <v>0.182459019761245</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.115718311257971</v>
+        <v>-0.103624689394531</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.109194645920681</v>
+        <v>-0.0979192142599139</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.115504008835402</v>
+        <v>0.123240736589863</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.0811275699926428</v>
+        <v>-0.0697475779798279</v>
       </c>
       <c r="S30" t="n">
-        <v>0.212724297557408</v>
+        <v>0.17863988660234</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0992228295667905</v>
+        <v>0.0693623920014714</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.234541131564911</v>
+        <v>-0.256612614503251</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.0567736136176595</v>
+        <v>-0.0755593551118325</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.275917294222626</v>
+        <v>-0.301679975376136</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.0567736136176595</v>
+        <v>-0.0755593551118325</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.186980534717828</v>
+        <v>-0.192578240303682</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.254093161225438</v>
+        <v>-0.258119534677707</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0840425676307884</v>
+        <v>0.0584362938002159</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.0604231629714435</v>
+        <v>-0.151828294076705</v>
       </c>
       <c r="AC30" t="n">
         <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.692605365455281</v>
+        <v>0.73199797700025</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.180560817648531</v>
+        <v>-0.193147641566809</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.222170518708936</v>
+        <v>-0.234037498571756</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.243772992317006</v>
+        <v>-0.27021554681545</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.085092401486975</v>
+        <v>0.0936442031065597</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.136484962702552</v>
+        <v>-0.149704053924129</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.0734662984517154</v>
+        <v>-0.0604959138403249</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.00901018081520403</v>
+        <v>-0.0176941652706892</v>
       </c>
       <c r="AL30" t="n">
-        <v>-0.0221399979135633</v>
+        <v>-0.0244843571669709</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.00853614996026862</v>
+        <v>-0.00230532373858761</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.304000430141557</v>
+        <v>0.317513524017579</v>
       </c>
       <c r="AO30" t="n">
-        <v>-0.238019802552484</v>
+        <v>-0.276767942247854</v>
       </c>
       <c r="AP30" t="n">
-        <v>-0.000374816840939583</v>
+        <v>0.00700299909181302</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-0.238413773437427</v>
+        <v>-0.262730143915177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.0782828695351317</v>
+        <v>-0.0810052263604592</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.142342974529512</v>
+        <v>-0.134818510882832</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0514008048237982</v>
+        <v>-0.0409904585885751</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0592079866501875</v>
+        <v>-0.0489497055997965</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0705233617041093</v>
+        <v>-0.0686822368927982</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0524785147679764</v>
+        <v>0.0338258406184476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0351454494742489</v>
+        <v>0.0504260275510788</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0958577941762569</v>
+        <v>0.127057203300022</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.141103890824654</v>
+        <v>-0.176188574051422</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.190246826691946</v>
+        <v>-0.240666698017937</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.187889550340058</v>
+        <v>-0.182847450584563</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.133959996868065</v>
+        <v>-0.114124910289788</v>
       </c>
       <c r="M31" t="n">
-        <v>0.13511372752772</v>
+        <v>0.149265963438841</v>
       </c>
       <c r="N31" t="n">
-        <v>0.133372924243057</v>
+        <v>0.158122013112341</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.203540543764737</v>
+        <v>-0.200175425055695</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.143577157535179</v>
+        <v>-0.139527535127702</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0527495326743832</v>
+        <v>0.0550587009411986</v>
       </c>
       <c r="R31" t="n">
-        <v>0.127643393364662</v>
+        <v>0.141053096055063</v>
       </c>
       <c r="S31" t="n">
-        <v>0.387860369299938</v>
+        <v>0.36358611716763</v>
       </c>
       <c r="T31" t="n">
-        <v>0.511203816141442</v>
+        <v>0.471031069122088</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.0625339854931151</v>
+        <v>-0.0949492329096859</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0524682668468813</v>
+        <v>0.0395179278113624</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.130355235726803</v>
+        <v>-0.167579430379251</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0524682668468813</v>
+        <v>0.0395179278113624</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.0699875889475393</v>
+        <v>-0.0805441786077598</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.198152186508956</v>
+        <v>-0.208574777442495</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.12405222025592</v>
+        <v>0.105194866166972</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0807004934121151</v>
+        <v>0.00647997051385265</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.692605365455281</v>
+        <v>0.73199797700025</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.101184128691095</v>
+        <v>-0.123560584203519</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.102226222523129</v>
+        <v>-0.134425910881321</v>
       </c>
       <c r="AG31" t="n">
-        <v>-0.114097522303634</v>
+        <v>-0.152418326647398</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.058312185403858</v>
+        <v>0.078993443395485</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.0763783024230554</v>
+        <v>-0.0937212530385097</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-0.0144886904612846</v>
+        <v>-0.00487821330482533</v>
       </c>
       <c r="AK31" t="n">
-        <v>-0.0091875381325722</v>
+        <v>0.000455286776933084</v>
       </c>
       <c r="AL31" t="n">
-        <v>-0.0267596031704545</v>
+        <v>-0.0326427331683727</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.00950149102141958</v>
+        <v>-0.00839391658694212</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.19557602373323</v>
+        <v>0.229175029506684</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.163071241668614</v>
+        <v>-0.206184058270976</v>
       </c>
       <c r="AP31" t="n">
-        <v>-0.0257310337683659</v>
+        <v>-0.0169271050654484</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-0.101089239470301</v>
+        <v>-0.133500919784158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0267569453000527</v>
+        <v>0.0266591404874938</v>
       </c>
       <c r="B32" t="n">
-        <v>0.012158949252726</v>
+        <v>0.0119469645801309</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0370791011116342</v>
+        <v>-0.0372596356034682</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0330199952012116</v>
+        <v>-0.0331764927951549</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0144188591939228</v>
+        <v>-0.0146435366081026</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0294246665099605</v>
+        <v>0.0295010345631734</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0916852691365288</v>
+        <v>-0.0918698667566053</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.0148084095895173</v>
+        <v>-0.0145658103351686</v>
       </c>
       <c r="I32" t="n">
-        <v>0.314251681676851</v>
+        <v>0.314264569390204</v>
       </c>
       <c r="J32" t="n">
-        <v>0.205403454238699</v>
+        <v>0.205462516036558</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.00389509664877626</v>
+        <v>-0.0040361013578481</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0924932306077075</v>
+        <v>-0.092773230681554</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0639607458550847</v>
+        <v>0.0635801631274713</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0325651741816927</v>
+        <v>0.0324315833758463</v>
       </c>
       <c r="O32" t="n">
-        <v>0.00819664953731961</v>
+        <v>0.00810767248173308</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.0375776915588851</v>
+        <v>-0.0380129451829385</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.00911053427223049</v>
+        <v>-0.00894923271650724</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0515532832011429</v>
+        <v>0.051143544580562</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0744397700239305</v>
+        <v>0.0741901614686132</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0463736626042354</v>
+        <v>0.046359115018858</v>
       </c>
       <c r="U32" t="n">
-        <v>0.304659320451898</v>
+        <v>0.304676356781596</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0117249049588561</v>
+        <v>0.0119607931116714</v>
       </c>
       <c r="W32" t="n">
-        <v>0.263971620666881</v>
+        <v>0.264060372203921</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0117249049588561</v>
+        <v>0.0119607931116714</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.193781558080103</v>
+        <v>0.193150504668095</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.151517292465336</v>
+        <v>0.151724202308126</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0571132056779914</v>
+        <v>0.0569078789048845</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0955413441681796</v>
+        <v>0.0639676267466047</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.180560817648531</v>
+        <v>-0.193147641566809</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.101184128691095</v>
+        <v>-0.123560584203519</v>
       </c>
       <c r="AE32" t="n">
         <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.332523576268347</v>
+        <v>0.332617225483044</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.322448964549334</v>
+        <v>0.322526569777659</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.0303783306700206</v>
+        <v>-0.0306612141987699</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.0913899466254737</v>
+        <v>0.0920190956062175</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.0744271452229361</v>
+        <v>0.0740152552746509</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.00335958458456688</v>
+        <v>0.00313802620845993</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0030137197916043</v>
+        <v>0.00310436427449106</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.0376013159855156</v>
+        <v>0.0376691741701659</v>
       </c>
       <c r="AN32" t="n">
-        <v>-0.120910308650193</v>
+        <v>-0.120671290905233</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.265780002855504</v>
+        <v>0.265934946131748</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.0097071327497024</v>
+        <v>0.00965325841006061</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.35976644854261</v>
+        <v>0.359822291936904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0180275916468121</v>
+        <v>0.0179228002916217</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.00404126309295361</v>
+        <v>-0.00426626914512229</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0788004727272356</v>
+        <v>-0.0789869062035947</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0643981345522015</v>
+        <v>-0.0645617695391158</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0451987859918176</v>
+        <v>-0.045433192507775</v>
       </c>
       <c r="F33" t="n">
-        <v>0.100099177537357</v>
+        <v>0.100174525432035</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.114483679698114</v>
+        <v>-0.114678392800827</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.11589790629324</v>
+        <v>-0.1156061805479</v>
       </c>
       <c r="I33" t="n">
-        <v>0.671913849236062</v>
+        <v>0.671897297808361</v>
       </c>
       <c r="J33" t="n">
-        <v>0.350730374792776</v>
+        <v>0.350779053565157</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0533330498514939</v>
+        <v>-0.0534778501796331</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.128493112444424</v>
+        <v>-0.128780940389327</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.135051118362304</v>
+        <v>-0.135353158426804</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.166130393227179</v>
+        <v>-0.166246886314052</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.062971489853271</v>
+        <v>-0.0630601277705817</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.0609098393906268</v>
+        <v>-0.0613609411090961</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.121119040771933</v>
+        <v>0.121270636786015</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0875160637088003</v>
+        <v>0.0870528211730249</v>
       </c>
       <c r="S33" t="n">
-        <v>0.181622107584584</v>
+        <v>0.181323316192542</v>
       </c>
       <c r="T33" t="n">
-        <v>0.127923930143664</v>
+        <v>0.127901717842353</v>
       </c>
       <c r="U33" t="n">
-        <v>0.684697165912434</v>
+        <v>0.684682963265131</v>
       </c>
       <c r="V33" t="n">
-        <v>0.061984451075325</v>
+        <v>0.0622246020135464</v>
       </c>
       <c r="W33" t="n">
-        <v>0.590295890007747</v>
+        <v>0.590348433707236</v>
       </c>
       <c r="X33" t="n">
-        <v>0.061984451075325</v>
+        <v>0.0622246020135464</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.167500500667734</v>
+        <v>0.166853681972538</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.20404580684474</v>
+        <v>0.204254492130569</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.121776207753156</v>
+        <v>0.121540475171074</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.222959611319889</v>
+        <v>0.174364821855281</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.222170518708936</v>
+        <v>-0.234037498571756</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.102226222523129</v>
+        <v>-0.134425910881321</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.332523576268347</v>
+        <v>0.332617225483044</v>
       </c>
       <c r="AF33" t="n">
         <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.58581150343353</v>
+        <v>0.585861479019673</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.0531822578921751</v>
+        <v>-0.0534792065187353</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.0521922912209774</v>
+        <v>0.0530392813915227</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.0399518687104425</v>
+        <v>0.0395301077462521</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.000141247603804159</v>
+        <v>-0.000379695746050929</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.00995654044445118</v>
+        <v>-0.00985720831372668</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.0135201149611517</v>
+        <v>0.0135955793374215</v>
       </c>
       <c r="AN33" t="n">
-        <v>-0.183496742637931</v>
+        <v>-0.183224032525364</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.276108452736775</v>
+        <v>0.276275706082756</v>
       </c>
       <c r="AP33" t="n">
-        <v>-0.0125726779350022</v>
+        <v>-0.0126290041201861</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.630971592476006</v>
+        <v>0.631001665880257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0197642366187938</v>
+        <v>0.0196784475144871</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0403253563999472</v>
+        <v>-0.0405014097916851</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0403130220244184</v>
+        <v>-0.0404716710852895</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0356632942630943</v>
+        <v>-0.0358010688056128</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.00816216308055647</v>
+        <v>-0.00836210928042816</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11286774245776</v>
+        <v>0.112929123753368</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.176542864471071</v>
+        <v>-0.176686849113204</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.134754172153167</v>
+        <v>-0.134507133632276</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7222312100956</v>
+        <v>0.722221901378617</v>
       </c>
       <c r="J34" t="n">
-        <v>0.370496545042821</v>
+        <v>0.370537416781815</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0191416621010477</v>
+        <v>-0.0192643501428871</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.15853645500765</v>
+        <v>-0.158750400205217</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0849555981044329</v>
+        <v>-0.0852185779321766</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.143755512570412</v>
+        <v>-0.143853324554649</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0516957438239648</v>
+        <v>-0.0517695376558722</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0485719823855468</v>
+        <v>-0.0489434107802794</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.00172953584813527</v>
+        <v>-0.00158800425291862</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0777754568222398</v>
+        <v>0.0773945640183994</v>
       </c>
       <c r="S34" t="n">
-        <v>0.226970572478093</v>
+        <v>0.226709979277331</v>
       </c>
       <c r="T34" t="n">
-        <v>0.147508383376417</v>
+        <v>0.147490639827756</v>
       </c>
       <c r="U34" t="n">
-        <v>0.698164267983324</v>
+        <v>0.698158909947256</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0159996686172149</v>
+        <v>0.0162068114638741</v>
       </c>
       <c r="W34" t="n">
-        <v>0.725122252167118</v>
+        <v>0.725151489209809</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0159996686172149</v>
+        <v>0.0162068114638741</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.203278111075028</v>
+        <v>0.202695000250735</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.175625574353253</v>
+        <v>0.175797882890188</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.122154702159421</v>
+        <v>0.121959965061768</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.224860414280479</v>
+        <v>0.178627917008146</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.243772992317006</v>
+        <v>-0.27021554681545</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.114097522303634</v>
+        <v>-0.152418326647398</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.322448964549334</v>
+        <v>0.322526569777659</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.58581150343353</v>
+        <v>0.585861479019673</v>
       </c>
       <c r="AG34" t="n">
         <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.0315777260433573</v>
+        <v>-0.0318263517507937</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.0714294880924295</v>
+        <v>0.0720203743548791</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.0845627599088063</v>
+        <v>0.0841888472629333</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.0216350983732872</v>
+        <v>0.0214348414098409</v>
       </c>
       <c r="AL34" t="n">
-        <v>-0.00675695945006578</v>
+        <v>-0.00667601486185823</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.0355017738387597</v>
+        <v>0.0355620730880863</v>
       </c>
       <c r="AN34" t="n">
-        <v>-0.213346452889973</v>
+        <v>-0.213113126861504</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.343231113233247</v>
+        <v>0.343345196444755</v>
       </c>
       <c r="AP34" t="n">
-        <v>-0.0497382092424961</v>
+        <v>-0.0497821151399003</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.706762253349355</v>
+        <v>0.706784121469348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.0339584458763617</v>
+        <v>-0.0337300654517159</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.00474728516295019</v>
+        <v>-0.00427039703503852</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0490344415616594</v>
+        <v>-0.0485848858102498</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0582999574864354</v>
+        <v>-0.0579070864125502</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0408813899162231</v>
+        <v>-0.0403410746799512</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0374567766673806</v>
+        <v>0.037264140985511</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0239140925959043</v>
+        <v>-0.0234361275237627</v>
       </c>
       <c r="H35" t="n">
-        <v>0.129879660283364</v>
+        <v>0.129266947254978</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0240630905957244</v>
+        <v>-0.0241338369558375</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.00600396234886912</v>
+        <v>-0.00617676511353923</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0429970582094855</v>
+        <v>0.0433005101481742</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0310535669544755</v>
+        <v>0.0317638615150917</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0136531823180894</v>
+        <v>0.0144291708201861</v>
       </c>
       <c r="N35" t="n">
-        <v>0.10326894673758</v>
+        <v>0.103521257676549</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0319139923629684</v>
+        <v>0.0321024546221977</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.00145606775294762</v>
+        <v>-0.000389031059676352</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0214294159697141</v>
+        <v>0.0210575646368221</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0484999825638992</v>
+        <v>0.0493147894759382</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0944337425674185</v>
+        <v>0.0949040432278818</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0310000080862101</v>
+        <v>0.0310157257999757</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0145449159644041</v>
+        <v>-0.0146275150980389</v>
       </c>
       <c r="V35" t="n">
-        <v>0.00529292266547462</v>
+        <v>0.00474723863205317</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0158159191523661</v>
+        <v>-0.0160835786558205</v>
       </c>
       <c r="X35" t="n">
-        <v>0.00529292266547462</v>
+        <v>0.00474723863205317</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0462836865865308</v>
+        <v>0.047275071856243</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.054348546506119</v>
+        <v>-0.0548942053975653</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.00237748542133339</v>
+        <v>0.00281511719476084</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.00340140441469204</v>
+        <v>-0.039236225305918</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.085092401486975</v>
+        <v>0.0936442031065597</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.058312185403858</v>
+        <v>0.078993443395485</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.0303783306700206</v>
+        <v>-0.0306612141987699</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.0531822578921751</v>
+        <v>-0.0534792065187353</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.0315777260433573</v>
+        <v>-0.0318263517507937</v>
       </c>
       <c r="AH35" t="n">
         <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.112245478153789</v>
+        <v>-0.113985281661619</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.18266037041853</v>
+        <v>0.183339433490752</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.0962364423872818</v>
+        <v>0.0966869402171279</v>
       </c>
       <c r="AL35" t="n">
-        <v>-0.0372576053656021</v>
+        <v>-0.0374502592181477</v>
       </c>
       <c r="AM35" t="n">
-        <v>-0.00547911611856318</v>
+        <v>-0.0056383289465485</v>
       </c>
       <c r="AN35" t="n">
-        <v>-0.0514145319069774</v>
+        <v>-0.0518662329965072</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.0142295513886752</v>
+        <v>0.0137159534654389</v>
       </c>
       <c r="AP35" t="n">
-        <v>-0.00508815653306938</v>
+        <v>-0.00496584337266083</v>
       </c>
       <c r="AQ35" t="n">
-        <v>-0.0371025658605188</v>
+        <v>-0.037294493156114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0686433264067437</v>
+        <v>0.0676969361489494</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0411561358586096</v>
+        <v>0.0394621773428164</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0426252315485527</v>
+        <v>0.0410831937968362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0416639252080946</v>
+        <v>0.0403185529915813</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0734243882684305</v>
+        <v>0.0714657782754579</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0271524497150819</v>
+        <v>-0.0264735912425332</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0763135722748221</v>
+        <v>0.0745171350533501</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002627744982685</v>
+        <v>0.00437490731902587</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0827975737917302</v>
+        <v>0.0827606007795042</v>
       </c>
       <c r="J36" t="n">
-        <v>0.10659957294159</v>
+        <v>0.106788324616449</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0421322239204092</v>
+        <v>-0.0430232191478806</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0327164664988313</v>
+        <v>-0.0349693278252187</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0214899031854325</v>
+        <v>-0.0239601727725268</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0166515100988836</v>
+        <v>-0.0175450527881277</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0172413312277994</v>
+        <v>-0.0178298509539794</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0587060542845073</v>
+        <v>0.0549879881201004</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0645312811125915</v>
+        <v>-0.063118803058038</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0074995552273538</v>
+        <v>-0.0102551814680153</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.0806634120812868</v>
+        <v>-0.082054408066021</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.0586156590568917</v>
+        <v>-0.0584930635729795</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0644021472835889</v>
+        <v>0.0644583363652218</v>
       </c>
       <c r="V36" t="n">
-        <v>0.051445262322179</v>
+        <v>0.0530151171028798</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0902926274476335</v>
+        <v>0.0908577116097842</v>
       </c>
       <c r="X36" t="n">
-        <v>0.051445262322179</v>
+        <v>0.0530151171028798</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0306004071143912</v>
+        <v>0.0270737964804126</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0267194895720372</v>
+        <v>0.0284939879123244</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.0483812674165864</v>
+        <v>-0.0496285296386259</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0435518834489677</v>
+        <v>0.0370844020062605</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.136484962702552</v>
+        <v>-0.149704053924129</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.0763783024230554</v>
+        <v>-0.0937212530385097</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0913899466254737</v>
+        <v>0.0920190956062175</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0521922912209774</v>
+        <v>0.0530392813915227</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0714294880924295</v>
+        <v>0.0720203743548791</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.112245478153789</v>
+        <v>-0.113985281661619</v>
       </c>
       <c r="AI36" t="n">
         <v>1</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.0610136859059814</v>
+        <v>0.0580521568385667</v>
       </c>
       <c r="AK36" t="n">
-        <v>-0.0593103868084549</v>
+        <v>-0.060716130920771</v>
       </c>
       <c r="AL36" t="n">
-        <v>-0.0899325417080121</v>
+        <v>-0.0889412972866777</v>
       </c>
       <c r="AM36" t="n">
-        <v>-0.0104426318824306</v>
+        <v>-0.00988196690232809</v>
       </c>
       <c r="AN36" t="n">
-        <v>-0.0899504404562409</v>
+        <v>-0.0880651629854981</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.125265305708984</v>
+        <v>0.126442364670177</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.0414436911939297</v>
+        <v>0.0409049823941529</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.0721960355177307</v>
+        <v>0.072605966506488</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.00162705152886166</v>
+        <v>0.00189553863676107</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0318996393261057</v>
+        <v>-0.0312853901370834</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0219107833335299</v>
+        <v>-0.0213640652933875</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0253869673634875</v>
+        <v>-0.0249124995863036</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0209716378254292</v>
+        <v>-0.0203094171661003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0310878258333116</v>
+        <v>0.0308471988242295</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0391586081378222</v>
+        <v>-0.0385500940570286</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0911782805900377</v>
+        <v>0.0904357322271478</v>
       </c>
       <c r="I37" t="n">
-        <v>0.076203601381519</v>
+        <v>0.0760650109341041</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00440121849977923</v>
+        <v>0.00418045845229796</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0109774690712685</v>
+        <v>0.0113717509572003</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0671482809641077</v>
+        <v>-0.0661712167041242</v>
       </c>
       <c r="M37" t="n">
-        <v>0.18560636674735</v>
+        <v>0.186405887121194</v>
       </c>
       <c r="N37" t="n">
-        <v>0.161617737212342</v>
+        <v>0.161889415949066</v>
       </c>
       <c r="O37" t="n">
-        <v>0.00370063719141751</v>
+        <v>0.0039483508930166</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.00311362478264154</v>
+        <v>-0.00177968420175377</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.013183194717695</v>
+        <v>0.0127224764407527</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.0168687544975637</v>
+        <v>-0.0157801583023546</v>
       </c>
       <c r="S37" t="n">
-        <v>0.114020874109133</v>
+        <v>0.114588656425606</v>
       </c>
       <c r="T37" t="n">
-        <v>0.115485285888871</v>
+        <v>0.11545758963532</v>
       </c>
       <c r="U37" t="n">
-        <v>0.084796681657358</v>
+        <v>0.0846426970607762</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0403927144321248</v>
+        <v>0.0396853312063033</v>
       </c>
       <c r="W37" t="n">
-        <v>0.093193503680154</v>
+        <v>0.0927978910335848</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0403927144321248</v>
+        <v>0.0396853312063033</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0785886201676195</v>
+        <v>0.0797874139367727</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.0090319193661629</v>
+        <v>-0.00974562300465496</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0139641898411791</v>
+        <v>0.0145025520212507</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.113594672598466</v>
+        <v>0.0736840920514518</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.0734662984517154</v>
+        <v>-0.0604959138403249</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.0144886904612846</v>
+        <v>-0.00487821330482533</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0744271452229361</v>
+        <v>0.0740152552746509</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.0399518687104425</v>
+        <v>0.0395301077462521</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0845627599088063</v>
+        <v>0.0841888472629333</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.18266037041853</v>
+        <v>0.183339433490752</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.0610136859059814</v>
+        <v>0.0580521568385667</v>
       </c>
       <c r="AJ37" t="n">
         <v>1</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.174932583810455</v>
+        <v>0.175433593717187</v>
       </c>
       <c r="AL37" t="n">
-        <v>-0.246828363507454</v>
+        <v>-0.246949301736719</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.0405487086755444</v>
+        <v>-0.0407279198221604</v>
       </c>
       <c r="AN37" t="n">
-        <v>-0.0571681737684499</v>
+        <v>-0.0577248285104431</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.0548781096435923</v>
+        <v>0.0542072868971598</v>
       </c>
       <c r="AP37" t="n">
-        <v>-0.0653390405604375</v>
+        <v>-0.0651537856102696</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.0608083262172855</v>
+        <v>0.0605181799796677</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0471262236595994</v>
+        <v>0.0472772217151166</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0241942024509358</v>
+        <v>0.0245405779388053</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00426949109379505</v>
+        <v>-0.00394905799653414</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00847507632366158</v>
+        <v>-0.00819772245973835</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0176864515589487</v>
+        <v>0.0180674244596834</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.00311658459445343</v>
+        <v>-0.00324998627076893</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.00682327998501128</v>
+        <v>-0.00647221750987177</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0708881706302669</v>
+        <v>0.0704547797136359</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0396292860890663</v>
+        <v>0.0395626435604598</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0117503384314673</v>
+        <v>-0.0118787494289793</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.00300661060207055</v>
+        <v>-0.00276555760180021</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.00207641620597716</v>
+        <v>-0.0015267159076811</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0103145961108858</v>
+        <v>0.0108965562501296</v>
       </c>
       <c r="N38" t="n">
-        <v>0.042385332723902</v>
+        <v>0.0425942506736071</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0252398594869155</v>
+        <v>0.0253840716998854</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.0155240182171327</v>
+        <v>-0.0147109792793477</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.0398804446907651</v>
+        <v>-0.0401403023275743</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0204368089055497</v>
+        <v>0.0210633921202508</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0207907224025899</v>
+        <v>0.0211724174382502</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0295403381026636</v>
+        <v>0.0295543225831488</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0448514795414353</v>
+        <v>0.0447773240843505</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.019648343950845</v>
+        <v>-0.0200463724082319</v>
       </c>
       <c r="W38" t="n">
-        <v>0.018981969972706</v>
+        <v>0.0187724908547462</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.019648343950845</v>
+        <v>-0.0200463724082319</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.084642613168644</v>
+        <v>0.0853392231568153</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.0501619648889266</v>
+        <v>-0.0505720198913451</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.00542994456540227</v>
+        <v>0.00575639205745843</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.00971959306863837</v>
+        <v>0.0167535401441125</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.00901018081520403</v>
+        <v>-0.0176941652706892</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.0091875381325722</v>
+        <v>0.000455286776933084</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.00335958458456688</v>
+        <v>0.00313802620845993</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.000141247603804159</v>
+        <v>-0.000379695746050929</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0216350983732872</v>
+        <v>0.0214348414098409</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0962364423872818</v>
+        <v>0.0966869402171279</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.0593103868084549</v>
+        <v>-0.060716130920771</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.174932583810455</v>
+        <v>0.175433593717187</v>
       </c>
       <c r="AK38" t="n">
         <v>1</v>
       </c>
       <c r="AL38" t="n">
-        <v>-0.0232446308911946</v>
+        <v>-0.0233938785884693</v>
       </c>
       <c r="AM38" t="n">
-        <v>-0.321781558893736</v>
+        <v>-0.321835601550873</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.012829758584552</v>
+        <v>0.012467820213887</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.0549612425592377</v>
+        <v>0.0545618062843926</v>
       </c>
       <c r="AP38" t="n">
-        <v>-0.02185709084994</v>
+        <v>-0.0217625717702512</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.0371592162733932</v>
+        <v>0.0369973355358709</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0543936038881574</v>
+        <v>0.0543234553809709</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0254537596247279</v>
+        <v>0.0253024131790243</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0176558449486552</v>
+        <v>0.0175214295661164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0178242439144014</v>
+        <v>0.0177086112334393</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0322389412381446</v>
+        <v>0.0320716483620808</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.00372059334152677</v>
+        <v>-0.00366515087697646</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0182986679715029</v>
+        <v>0.0181514560964113</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0474103335600048</v>
+        <v>-0.0472317540194407</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0216644466013163</v>
+        <v>-0.0216393336492397</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0233540320402461</v>
+        <v>-0.0232988306346174</v>
       </c>
       <c r="K39" t="n">
-        <v>0.120114538294139</v>
+        <v>0.12000247438315</v>
       </c>
       <c r="L39" t="n">
-        <v>0.070086937286126</v>
+        <v>0.0698305804676433</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.103322922476778</v>
+        <v>-0.103514376565395</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0764576503660681</v>
+        <v>-0.0765407710267849</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0908941540707351</v>
+        <v>0.0908268687688723</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0272366409163896</v>
+        <v>0.0268843122291735</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.0164452406243648</v>
+        <v>-0.0163313460550228</v>
       </c>
       <c r="R39" t="n">
-        <v>0.00485416021261687</v>
+        <v>0.00458697073866707</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0469338271488154</v>
+        <v>-0.0470834214198693</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0605128129903298</v>
+        <v>-0.060518905989834</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.0317365116061</v>
+        <v>-0.031708334907613</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.0409801753381368</v>
+        <v>-0.0408025622206812</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.0236696813692924</v>
+        <v>-0.0235831971992063</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.0409801753381368</v>
+        <v>-0.0408025622206812</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0698347543769298</v>
+        <v>0.0694536066201151</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.0184512900685589</v>
+        <v>-0.0182681409804165</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.000285538359924169</v>
+        <v>-0.000420730487852358</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.0552445189254218</v>
+        <v>-0.0209460275799234</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.0221399979135633</v>
+        <v>-0.0244843571669709</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.0267596031704545</v>
+        <v>-0.0326427331683727</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0030137197916043</v>
+        <v>0.00310436427449106</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.00995654044445118</v>
+        <v>-0.00985720831372668</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.00675695945006578</v>
+        <v>-0.00667601486185823</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.0372576053656021</v>
+        <v>-0.0374502592181477</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.0899325417080121</v>
+        <v>-0.0889412972866777</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.246828363507454</v>
+        <v>-0.246949301736719</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.0232446308911946</v>
+        <v>-0.0233938785884693</v>
       </c>
       <c r="AL39" t="n">
         <v>1</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.068105623389856</v>
+        <v>0.0681518090310101</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0596525987584278</v>
+        <v>0.0597877671777818</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.0043534154912484</v>
+        <v>0.00450844360237772</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.0856797884274283</v>
+        <v>0.0856389752703232</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0.0413493023389639</v>
+        <v>-0.0412833364132353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.00592414411233702</v>
+        <v>-0.00597578829702572</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0270035389849952</v>
+        <v>0.026884229060976</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00396245257795574</v>
+        <v>-0.00406452000807884</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0140934913401654</v>
+        <v>-0.014180272493025</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.00114844888304493</v>
+        <v>-0.00127301559924057</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0122333081658071</v>
+        <v>0.0122759227290421</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0262097563980127</v>
+        <v>-0.0263172112281274</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00242571596520586</v>
+        <v>0.00255536074417113</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00859800375425578</v>
+        <v>0.00861679650958214</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0539294210690236</v>
+        <v>0.0539692638355594</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0115067216569081</v>
+        <v>-0.0115829354794559</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0248270807983442</v>
+        <v>-0.0249931480660364</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0101186525921471</v>
+        <v>0.00992432236220974</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0009580655887103</v>
+        <v>-0.00102865557831948</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0104420312463511</v>
+        <v>-0.010489693484696</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0361620957155459</v>
+        <v>0.0358742318711363</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.0459818050268372</v>
+        <v>-0.0458891014069084</v>
       </c>
       <c r="R40" t="n">
-        <v>0.023502281535749</v>
+        <v>0.023282403565931</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0282557812852604</v>
+        <v>0.0281240485677346</v>
       </c>
       <c r="T40" t="n">
-        <v>0.00500602829330563</v>
+        <v>0.00499964223204139</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00278634370728164</v>
+        <v>0.00280735303902861</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.0558892123174668</v>
+        <v>-0.0557451528017403</v>
       </c>
       <c r="W40" t="n">
-        <v>-0.00201280916070156</v>
+        <v>-0.00194672601231106</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.0558892123174668</v>
+        <v>-0.0557451528017403</v>
       </c>
       <c r="Y40" t="n">
-        <v>-0.0320646087425139</v>
+        <v>-0.0322893460895562</v>
       </c>
       <c r="Z40" t="n">
-        <v>-0.00757736801517335</v>
+        <v>-0.00743631938687959</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.0267306514121806</v>
+        <v>-0.0268319294542644</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.0238738426641076</v>
+        <v>-0.00961234062767038</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.00853614996026862</v>
+        <v>-0.00230532373858761</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.00950149102141958</v>
+        <v>-0.00839391658694212</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0376013159855156</v>
+        <v>0.0376691741701659</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0135201149611517</v>
+        <v>0.0135955793374215</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0355017738387597</v>
+        <v>0.0355620730880863</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.00547911611856318</v>
+        <v>-0.0056383289465485</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.0104426318824306</v>
+        <v>-0.00988196690232809</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-0.0405487086755444</v>
+        <v>-0.0407279198221604</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.321781558893736</v>
+        <v>-0.321835601550873</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.068105623389856</v>
+        <v>0.0681518090310101</v>
       </c>
       <c r="AM40" t="n">
         <v>1</v>
       </c>
       <c r="AN40" t="n">
-        <v>-0.0126488641430942</v>
+        <v>-0.0125314551642403</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.0332387193770315</v>
+        <v>0.0333535690291324</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.0147933751106198</v>
+        <v>0.0147639019227281</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.0149098581656306</v>
+        <v>0.0149585800435676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.131422683011093</v>
+        <v>0.131241678357645</v>
       </c>
       <c r="B41" t="n">
-        <v>0.125187361525176</v>
+        <v>0.124806339159202</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179959433549902</v>
+        <v>0.179599947995076</v>
       </c>
       <c r="D41" t="n">
-        <v>0.170166133117441</v>
+        <v>0.169857711219235</v>
       </c>
       <c r="E41" t="n">
-        <v>0.182526871176367</v>
+        <v>0.182089137757333</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.249658015277567</v>
+        <v>-0.24948158380555</v>
       </c>
       <c r="G41" t="n">
-        <v>0.289060862093633</v>
+        <v>0.288632065226228</v>
       </c>
       <c r="H41" t="n">
-        <v>0.127622744627324</v>
+        <v>0.127959092153283</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.228661179928122</v>
+        <v>-0.228564822317293</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.476471605330119</v>
+        <v>-0.476254639806636</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0730576259247591</v>
+        <v>-0.0732687383773847</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0137968603888293</v>
+        <v>-0.0143121882062267</v>
       </c>
       <c r="M41" t="n">
-        <v>0.161129220174785</v>
+        <v>0.160465668093654</v>
       </c>
       <c r="N41" t="n">
-        <v>0.186135586148824</v>
+        <v>0.185882406723275</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0567204568894189</v>
+        <v>0.0565662907512296</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0340751390460118</v>
+        <v>0.0332801690991252</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.224524880863557</v>
+        <v>-0.224205809236124</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.0779961244652971</v>
+        <v>-0.0785520583676573</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.111212148308902</v>
+        <v>-0.111542491979171</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0346705244647358</v>
+        <v>0.0346459634255536</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.177999065473921</v>
+        <v>-0.177905223553651</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.0658379766098232</v>
+        <v>-0.0654249328691062</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.233550886719048</v>
+        <v>-0.233302568219403</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.0658379766098232</v>
+        <v>-0.0654249328691062</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.177629652889597</v>
+        <v>-0.178200034291226</v>
       </c>
       <c r="Z41" t="n">
-        <v>-0.186354241717887</v>
+        <v>-0.18586401865615</v>
       </c>
       <c r="AA41" t="n">
-        <v>-0.0652493213510044</v>
+        <v>-0.0655419455036116</v>
       </c>
       <c r="AB41" t="n">
-        <v>-0.0715154891496917</v>
+        <v>0.000825276632638244</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.304000430141557</v>
+        <v>0.317513524017579</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.19557602373323</v>
+        <v>0.229175029506684</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.120910308650193</v>
+        <v>-0.120671290905233</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.183496742637931</v>
+        <v>-0.183224032525364</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.213346452889973</v>
+        <v>-0.213113126861504</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.0514145319069774</v>
+        <v>-0.0518662329965072</v>
       </c>
       <c r="AI41" t="n">
-        <v>-0.0899504404562409</v>
+        <v>-0.0880651629854981</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-0.0571681737684499</v>
+        <v>-0.0577248285104431</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.012829758584552</v>
+        <v>0.012467820213887</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0596525987584278</v>
+        <v>0.0597877671777818</v>
       </c>
       <c r="AM41" t="n">
-        <v>-0.0126488641430942</v>
+        <v>-0.0125314551642403</v>
       </c>
       <c r="AN41" t="n">
         <v>1</v>
       </c>
       <c r="AO41" t="n">
-        <v>-0.24658235628186</v>
+        <v>-0.24613195499383</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.113307918997618</v>
+        <v>0.113201340107609</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-0.203167187317362</v>
+        <v>-0.202979478317569</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0760460900709054</v>
+        <v>0.0758656909594035</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0461356499259669</v>
+        <v>0.0457602708475514</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.016103297035414</v>
+        <v>-0.0164205101672469</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0223022595595549</v>
+        <v>-0.0225736084608722</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0351842498964919</v>
+        <v>0.0347784485941486</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0653567243507668</v>
+        <v>0.0654781508675843</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.107670599675541</v>
+        <v>-0.107984949724933</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.129249174279428</v>
+        <v>-0.128787226932543</v>
       </c>
       <c r="I42" t="n">
-        <v>0.270312753172177</v>
+        <v>0.270319436847585</v>
       </c>
       <c r="J42" t="n">
-        <v>0.465459787870499</v>
+        <v>0.465492361769951</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0101743380146759</v>
+        <v>-0.0104144476692012</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.106731427072486</v>
+        <v>-0.107222518345491</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0990777998861691</v>
+        <v>-0.0996080019378948</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.146223663685537</v>
+        <v>-0.146408217178759</v>
       </c>
       <c r="O42" t="n">
-        <v>0.00270989501339882</v>
+        <v>0.00255799162197299</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.0178573958556339</v>
+        <v>-0.0186443685296302</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.0150270375306872</v>
+        <v>-0.0147485273412303</v>
       </c>
       <c r="R42" t="n">
-        <v>0.112999496656417</v>
+        <v>0.112267231547862</v>
       </c>
       <c r="S42" t="n">
-        <v>0.21155778878548</v>
+        <v>0.211080405287209</v>
       </c>
       <c r="T42" t="n">
-        <v>0.100667253283026</v>
+        <v>0.100628194895953</v>
       </c>
       <c r="U42" t="n">
-        <v>0.215293679444069</v>
+        <v>0.215317448276811</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0206436470746181</v>
+        <v>0.02104555052827</v>
       </c>
       <c r="W42" t="n">
-        <v>0.309603583687229</v>
+        <v>0.309734058132971</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0206436470746181</v>
+        <v>0.02104555052827</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1726672081433</v>
+        <v>0.171703510949619</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.258939244513984</v>
+        <v>0.259261797451632</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.133205046048743</v>
+        <v>0.132828627365135</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.154278047659767</v>
+        <v>0.13493908447231</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.238019802552484</v>
+        <v>-0.276767942247854</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.163071241668614</v>
+        <v>-0.206184058270976</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.265780002855504</v>
+        <v>0.265934946131748</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.276108452736775</v>
+        <v>0.276275706082756</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.343231113233247</v>
+        <v>0.343345196444755</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0142295513886752</v>
+        <v>0.0137159534654389</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.125265305708984</v>
+        <v>0.126442364670177</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.0548781096435923</v>
+        <v>0.0542072868971598</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.0549612425592377</v>
+        <v>0.0545618062843926</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.0043534154912484</v>
+        <v>0.00450844360237772</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.0332387193770315</v>
+        <v>0.0333535690291324</v>
       </c>
       <c r="AN42" t="n">
-        <v>-0.24658235628186</v>
+        <v>-0.24613195499383</v>
       </c>
       <c r="AO42" t="n">
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.0566207177186812</v>
+        <v>0.0565181109095679</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.290779111396212</v>
+        <v>0.290869693716026</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.190623122036387</v>
+        <v>0.190653293029119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.121169092922678</v>
+        <v>0.121232859673003</v>
       </c>
       <c r="C43" t="n">
-        <v>0.151813696276776</v>
+        <v>0.151868234202337</v>
       </c>
       <c r="D43" t="n">
-        <v>0.158338728594465</v>
+        <v>0.158387223346393</v>
       </c>
       <c r="E43" t="n">
-        <v>0.171457567572187</v>
+        <v>0.171514653947675</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.13403042828088</v>
+        <v>-0.134058033976122</v>
       </c>
       <c r="G43" t="n">
-        <v>0.212767500142159</v>
+        <v>0.212814607716049</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0102538228968839</v>
+        <v>0.010154054636589</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0418244169118112</v>
+        <v>-0.041837981397224</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.136291773470927</v>
+        <v>-0.136318688112673</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0906451116702702</v>
+        <v>-0.0905792993774711</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0252950232042441</v>
+        <v>-0.0251525397075608</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.00595061014261296</v>
+        <v>-0.00580606744874943</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00123301498961579</v>
+        <v>0.00128578898599559</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.066414269552811</v>
+        <v>-0.0663755218672208</v>
       </c>
       <c r="P43" t="n">
-        <v>0.220524072746662</v>
+        <v>0.220526521011212</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.117094607041189</v>
+        <v>-0.117147140353447</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0431184391310017</v>
+        <v>-0.0429397895060967</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.157801804367433</v>
+        <v>-0.157674234985728</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.082579544734579</v>
+        <v>-0.0825739034334539</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0442523933185601</v>
+        <v>-0.0442674284553602</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.000636714510915796</v>
+        <v>-0.000734322835967121</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.0436617834085734</v>
+        <v>-0.0437081852332733</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.000636714510915796</v>
+        <v>-0.000734322835967121</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0277918781701239</v>
+        <v>0.0279570594039444</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.0190716948353206</v>
+        <v>-0.0191707311962513</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.059999976343724</v>
+        <v>-0.0599116679976465</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.0186725436279204</v>
+        <v>-0.0172742604543275</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.000374816840939583</v>
+        <v>0.00700299909181302</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.0257310337683659</v>
+        <v>-0.0169271050654484</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0097071327497024</v>
+        <v>0.00965325841006061</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.0125726779350022</v>
+        <v>-0.0126290041201861</v>
       </c>
       <c r="AG43" t="n">
-        <v>-0.0497382092424961</v>
+        <v>-0.0497821151399003</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.00508815653306938</v>
+        <v>-0.00496584337266083</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.0414436911939297</v>
+        <v>0.0409049823941529</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.0653390405604375</v>
+        <v>-0.0651537856102696</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.02185709084994</v>
+        <v>-0.0217625717702512</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.0856797884274283</v>
+        <v>0.0856389752703232</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.0147933751106198</v>
+        <v>0.0147639019227281</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.113307918997618</v>
+        <v>0.113201340107609</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.0566207177186812</v>
+        <v>0.0565181109095679</v>
       </c>
       <c r="AP43" t="n">
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-0.0265876347089837</v>
+        <v>-0.0266235231584128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0418391612840171</v>
+        <v>0.0417701145503143</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0185468017431411</v>
+        <v>0.0183974029386152</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0205014128643539</v>
+        <v>-0.0206289304008776</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0167767890968475</v>
+        <v>-0.0168874001516423</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0130954288540342</v>
+        <v>0.0129332053398795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0893372336262562</v>
+        <v>0.0893872945835866</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.124351822516333</v>
+        <v>-0.124470827524892</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.122772787595046</v>
+        <v>-0.122576012142009</v>
       </c>
       <c r="I44" t="n">
-        <v>0.928138172194397</v>
+        <v>0.928128799976321</v>
       </c>
       <c r="J44" t="n">
-        <v>0.386028111478488</v>
+        <v>0.386060823226269</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0772984614066026</v>
+        <v>-0.0773886767019283</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.170941696584544</v>
+        <v>-0.171092766112276</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.144822730129047</v>
+        <v>-0.144992769798813</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.168796641431898</v>
+        <v>-0.168870576907123</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.091163529889349</v>
+        <v>-0.0912193665672362</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.00635805728822068</v>
+        <v>-0.00667956599643813</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.00843148257871953</v>
+        <v>-0.00831906110582857</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0795668695380301</v>
+        <v>0.0792572725859532</v>
       </c>
       <c r="S44" t="n">
-        <v>0.242034529395928</v>
+        <v>0.241817811831292</v>
       </c>
       <c r="T44" t="n">
-        <v>0.14782036657224</v>
+        <v>0.147807610284866</v>
       </c>
       <c r="U44" t="n">
-        <v>0.914093228528326</v>
+        <v>0.91408603526069</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.00188168459062202</v>
+        <v>-0.00171456201446338</v>
       </c>
       <c r="W44" t="n">
-        <v>0.621613638093428</v>
+        <v>0.621643285607491</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.00188168459062202</v>
+        <v>-0.00171456201446338</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.175116028963781</v>
+        <v>0.174646961323548</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.202399548003829</v>
+        <v>0.202520036737839</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.113081488703197</v>
+        <v>0.112926934594248</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.210760822203424</v>
+        <v>0.180430168153589</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.238413773437427</v>
+        <v>-0.262730143915177</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.101089239470301</v>
+        <v>-0.133500919784158</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.35976644854261</v>
+        <v>0.359822291936904</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.630971592476006</v>
+        <v>0.631001665880257</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.706762253349355</v>
+        <v>0.706784121469348</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.0371025658605188</v>
+        <v>-0.037294493156114</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.0721960355177307</v>
+        <v>0.072605966506488</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.0608083262172855</v>
+        <v>0.0605181799796677</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.0371592162733932</v>
+        <v>0.0369973355358709</v>
       </c>
       <c r="AL44" t="n">
-        <v>-0.0413493023389639</v>
+        <v>-0.0412833364132353</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.0149098581656306</v>
+        <v>0.0149585800435676</v>
       </c>
       <c r="AN44" t="n">
-        <v>-0.203167187317362</v>
+        <v>-0.202979478317569</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.290779111396212</v>
+        <v>0.290869693716026</v>
       </c>
       <c r="AP44" t="n">
-        <v>-0.0265876347089837</v>
+        <v>-0.0266235231584128</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
